--- a/水泥.excel/1101/1101(102.1~105.4)3.xlsx
+++ b/水泥.excel/1101/1101(102.1~105.4)3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>金額_x</t>
   </si>
@@ -115,735 +115,60 @@
     <t>不動產、廠房及設備</t>
   </si>
   <si>
-    <t>111,042,032</t>
-  </si>
-  <si>
-    <t>110,739,317</t>
-  </si>
-  <si>
-    <t>109,851,867</t>
-  </si>
-  <si>
-    <t>109,369,671</t>
-  </si>
-  <si>
-    <t>108,111,081</t>
-  </si>
-  <si>
-    <t>106,252,824</t>
-  </si>
-  <si>
-    <t>106,972,592</t>
-  </si>
-  <si>
-    <t>108,445,563</t>
-  </si>
-  <si>
-    <t>110,651,850</t>
-  </si>
-  <si>
-    <t>116,103,732</t>
-  </si>
-  <si>
-    <t>116,584,284</t>
-  </si>
-  <si>
-    <t>113,310,134</t>
-  </si>
-  <si>
-    <t>110,936,901</t>
-  </si>
-  <si>
-    <t>107,998,519</t>
-  </si>
-  <si>
-    <t>104,145,693</t>
-  </si>
-  <si>
-    <t>101,799,766</t>
-  </si>
-  <si>
     <t>以成本衡量之金融負債－流動</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>以成本衡量之金融負債－非流動</t>
   </si>
   <si>
     <t>以成本衡量之金融資產－非流動淨額</t>
   </si>
   <si>
-    <t>616,490</t>
-  </si>
-  <si>
-    <t>579,264</t>
-  </si>
-  <si>
-    <t>579,099</t>
-  </si>
-  <si>
-    <t>579,192</t>
-  </si>
-  <si>
-    <t>579,451</t>
-  </si>
-  <si>
-    <t>557,352</t>
-  </si>
-  <si>
-    <t>557,353</t>
-  </si>
-  <si>
-    <t>546,028</t>
-  </si>
-  <si>
-    <t>545,892</t>
-  </si>
-  <si>
-    <t>821,821</t>
-  </si>
-  <si>
-    <t>822,628</t>
-  </si>
-  <si>
-    <t>822,609</t>
-  </si>
-  <si>
-    <t>822,346</t>
-  </si>
-  <si>
-    <t>810,789</t>
-  </si>
-  <si>
-    <t>810,435</t>
-  </si>
-  <si>
-    <t>589,736</t>
-  </si>
-  <si>
     <t>保留盈餘合計</t>
   </si>
   <si>
-    <t>45,521,147</t>
-  </si>
-  <si>
-    <t>41,075,425</t>
-  </si>
-  <si>
-    <t>44,506,049</t>
-  </si>
-  <si>
-    <t>47,265,512</t>
-  </si>
-  <si>
-    <t>49,098,651</t>
-  </si>
-  <si>
-    <t>43,802,392</t>
-  </si>
-  <si>
-    <t>47,018,226</t>
-  </si>
-  <si>
-    <t>49,530,227</t>
-  </si>
-  <si>
-    <t>50,339,005</t>
-  </si>
-  <si>
-    <t>43,388,616</t>
-  </si>
-  <si>
-    <t>44,337,361</t>
-  </si>
-  <si>
-    <t>45,573,057</t>
-  </si>
-  <si>
-    <t>45,794,052</t>
-  </si>
-  <si>
-    <t>42,887,203</t>
-  </si>
-  <si>
-    <t>45,208,495</t>
-  </si>
-  <si>
-    <t>47,337,524</t>
-  </si>
-  <si>
     <t>備供出售金融資產未實現損益</t>
   </si>
   <si>
-    <t>12,911,598</t>
-  </si>
-  <si>
     <t>備供出售金融資產－流動淨額</t>
   </si>
   <si>
-    <t>15,066,125</t>
-  </si>
-  <si>
-    <t>13,111,745</t>
-  </si>
-  <si>
-    <t>14,829,149</t>
-  </si>
-  <si>
-    <t>19,165,866</t>
-  </si>
-  <si>
-    <t>21,266,329</t>
-  </si>
-  <si>
-    <t>17,961,287</t>
-  </si>
-  <si>
-    <t>17,125,047</t>
-  </si>
-  <si>
-    <t>19,615,395</t>
-  </si>
-  <si>
-    <t>19,582,139</t>
-  </si>
-  <si>
-    <t>18,260,651</t>
-  </si>
-  <si>
-    <t>16,358,225</t>
-  </si>
-  <si>
-    <t>15,227,906</t>
-  </si>
-  <si>
-    <t>14,972,453</t>
-  </si>
-  <si>
-    <t>14,095,190</t>
-  </si>
-  <si>
-    <t>15,375,305</t>
-  </si>
-  <si>
-    <t>15,536,693</t>
-  </si>
-  <si>
     <t>備供出售金融資產－非流動淨額</t>
   </si>
   <si>
-    <t>4,775,276</t>
-  </si>
-  <si>
-    <t>4,606,311</t>
-  </si>
-  <si>
-    <t>4,507,469</t>
-  </si>
-  <si>
-    <t>4,551,126</t>
-  </si>
-  <si>
-    <t>4,818,344</t>
-  </si>
-  <si>
-    <t>5,006,364</t>
-  </si>
-  <si>
-    <t>5,076,401</t>
-  </si>
-  <si>
-    <t>5,022,536</t>
-  </si>
-  <si>
-    <t>5,101,127</t>
-  </si>
-  <si>
-    <t>5,043,058</t>
-  </si>
-  <si>
-    <t>4,062,414</t>
-  </si>
-  <si>
-    <t>3,990,535</t>
-  </si>
-  <si>
-    <t>4,179,171</t>
-  </si>
-  <si>
-    <t>3,932,343</t>
-  </si>
-  <si>
-    <t>4,026,846</t>
-  </si>
-  <si>
-    <t>4,190,855</t>
-  </si>
-  <si>
     <t>其他應付款</t>
   </si>
   <si>
-    <t>9,369,864</t>
-  </si>
-  <si>
-    <t>15,731,120</t>
-  </si>
-  <si>
-    <t>8,459,764</t>
-  </si>
-  <si>
-    <t>9,793,971</t>
-  </si>
-  <si>
-    <t>8,109,776</t>
-  </si>
-  <si>
-    <t>18,364,708</t>
-  </si>
-  <si>
-    <t>8,424,316</t>
-  </si>
-  <si>
-    <t>8,406,652</t>
-  </si>
-  <si>
-    <t>8,261,256</t>
-  </si>
-  <si>
-    <t>20,038,258</t>
-  </si>
-  <si>
-    <t>8,507,552</t>
-  </si>
-  <si>
-    <t>8,935,660</t>
-  </si>
-  <si>
-    <t>7,252,683</t>
-  </si>
-  <si>
-    <t>12,042,103</t>
-  </si>
-  <si>
-    <t>7,159,521</t>
-  </si>
-  <si>
-    <t>7,960,894</t>
-  </si>
-  <si>
     <t>其他應付款項－關係人</t>
   </si>
   <si>
     <t>其他應收款淨額</t>
   </si>
   <si>
-    <t>3,311,369</t>
-  </si>
-  <si>
-    <t>1,361,862</t>
-  </si>
-  <si>
-    <t>1,391,900</t>
-  </si>
-  <si>
-    <t>1,307,374</t>
-  </si>
-  <si>
-    <t>1,263,365</t>
-  </si>
-  <si>
-    <t>960,774</t>
-  </si>
-  <si>
-    <t>714,044</t>
-  </si>
-  <si>
-    <t>794,571</t>
-  </si>
-  <si>
-    <t>638,128</t>
-  </si>
-  <si>
-    <t>663,601</t>
-  </si>
-  <si>
-    <t>533,966</t>
-  </si>
-  <si>
-    <t>567,812</t>
-  </si>
-  <si>
-    <t>604,825</t>
-  </si>
-  <si>
-    <t>770,838</t>
-  </si>
-  <si>
     <t>其他應收款－關係人淨額</t>
   </si>
   <si>
-    <t>1,820,536</t>
-  </si>
-  <si>
-    <t>1,221,314</t>
-  </si>
-  <si>
-    <t>980,262</t>
-  </si>
-  <si>
-    <t>421,572</t>
-  </si>
-  <si>
-    <t>811,663</t>
-  </si>
-  <si>
-    <t>740,377</t>
-  </si>
-  <si>
-    <t>487,196</t>
-  </si>
-  <si>
-    <t>3,151,864</t>
-  </si>
-  <si>
-    <t>2,446,284</t>
-  </si>
-  <si>
-    <t>1,942,974</t>
-  </si>
-  <si>
-    <t>732,245</t>
-  </si>
-  <si>
-    <t>668,842</t>
-  </si>
-  <si>
-    <t>638,479</t>
-  </si>
-  <si>
-    <t>880,811</t>
-  </si>
-  <si>
-    <t>567,371</t>
-  </si>
-  <si>
-    <t>181,997</t>
-  </si>
-  <si>
     <t>其他權益合計</t>
   </si>
   <si>
-    <t>13,214,330</t>
-  </si>
-  <si>
-    <t>11,577,183</t>
-  </si>
-  <si>
-    <t>13,008,590</t>
-  </si>
-  <si>
-    <t>16,697,377</t>
-  </si>
-  <si>
-    <t>18,879,413</t>
-  </si>
-  <si>
-    <t>14,928,773</t>
-  </si>
-  <si>
-    <t>15,333,991</t>
-  </si>
-  <si>
-    <t>19,281,356</t>
-  </si>
-  <si>
-    <t>18,821,699</t>
-  </si>
-  <si>
-    <t>17,090,614</t>
-  </si>
-  <si>
-    <t>15,886,581</t>
-  </si>
-  <si>
-    <t>13,238,554</t>
-  </si>
-  <si>
-    <t>12,684,034</t>
-  </si>
-  <si>
-    <t>10,215,827</t>
-  </si>
-  <si>
-    <t>9,511,612</t>
-  </si>
-  <si>
-    <t>8,974,606</t>
-  </si>
-  <si>
     <t>其他流動負債</t>
   </si>
   <si>
-    <t>23,479,332</t>
-  </si>
-  <si>
-    <t>22,337,697</t>
-  </si>
-  <si>
-    <t>24,963,763</t>
-  </si>
-  <si>
-    <t>26,652,090</t>
-  </si>
-  <si>
-    <t>25,120,235</t>
-  </si>
-  <si>
-    <t>28,272,656</t>
-  </si>
-  <si>
-    <t>26,003,811</t>
-  </si>
-  <si>
-    <t>21,385,556</t>
-  </si>
-  <si>
-    <t>20,316,362</t>
-  </si>
-  <si>
-    <t>19,766,007</t>
-  </si>
-  <si>
-    <t>18,744,824</t>
-  </si>
-  <si>
-    <t>22,367,308</t>
-  </si>
-  <si>
-    <t>22,129,331</t>
-  </si>
-  <si>
-    <t>17,531,702</t>
-  </si>
-  <si>
-    <t>18,373,500</t>
-  </si>
-  <si>
-    <t>11,591,214</t>
-  </si>
-  <si>
     <t>其他流動資產</t>
   </si>
   <si>
-    <t>7,731,607</t>
-  </si>
-  <si>
-    <t>7,113,340</t>
-  </si>
-  <si>
-    <t>2,042,249</t>
-  </si>
-  <si>
-    <t>1,548,602</t>
-  </si>
-  <si>
-    <t>956,270</t>
-  </si>
-  <si>
-    <t>691,978</t>
-  </si>
-  <si>
-    <t>733,709</t>
-  </si>
-  <si>
-    <t>1,339,313</t>
-  </si>
-  <si>
-    <t>2,186,810</t>
-  </si>
-  <si>
-    <t>3,923,284</t>
-  </si>
-  <si>
-    <t>4,139,885</t>
-  </si>
-  <si>
-    <t>2,468,325</t>
-  </si>
-  <si>
-    <t>3,217,451</t>
-  </si>
-  <si>
-    <t>2,568,821</t>
-  </si>
-  <si>
-    <t>1,505,503</t>
-  </si>
-  <si>
-    <t>1,287,340</t>
-  </si>
-  <si>
     <t>其他非流動負債</t>
   </si>
   <si>
-    <t>898,847</t>
-  </si>
-  <si>
-    <t>1,771,698</t>
-  </si>
-  <si>
-    <t>1,596,705</t>
-  </si>
-  <si>
-    <t>1,641,695</t>
-  </si>
-  <si>
-    <t>1,623,847</t>
-  </si>
-  <si>
-    <t>603,956</t>
-  </si>
-  <si>
-    <t>1,651,592</t>
-  </si>
-  <si>
-    <t>1,557,981</t>
-  </si>
-  <si>
-    <t>1,479,314</t>
-  </si>
-  <si>
-    <t>1,388,031</t>
-  </si>
-  <si>
-    <t>1,303,434</t>
-  </si>
-  <si>
-    <t>1,243,517</t>
-  </si>
-  <si>
-    <t>1,188,320</t>
-  </si>
-  <si>
-    <t>1,077,120</t>
-  </si>
-  <si>
-    <t>1,005,814</t>
-  </si>
-  <si>
-    <t>931,080</t>
-  </si>
-  <si>
     <t>其他非流動資產</t>
   </si>
   <si>
-    <t>46,498,280</t>
-  </si>
-  <si>
-    <t>47,103,259</t>
-  </si>
-  <si>
-    <t>46,447,372</t>
-  </si>
-  <si>
-    <t>46,823,024</t>
-  </si>
-  <si>
-    <t>46,738,273</t>
-  </si>
-  <si>
-    <t>46,600,886</t>
-  </si>
-  <si>
-    <t>46,863,692</t>
-  </si>
-  <si>
-    <t>48,888,621</t>
-  </si>
-  <si>
-    <t>47,339,308</t>
-  </si>
-  <si>
-    <t>46,966,168</t>
-  </si>
-  <si>
-    <t>47,471,806</t>
-  </si>
-  <si>
-    <t>47,732,348</t>
-  </si>
-  <si>
-    <t>48,151,134</t>
-  </si>
-  <si>
-    <t>47,534,343</t>
-  </si>
-  <si>
-    <t>46,825,788</t>
-  </si>
-  <si>
-    <t>47,831,042</t>
-  </si>
-  <si>
     <t>國外營運機構財務報表換算之兌換差額</t>
   </si>
   <si>
-    <t>317,996</t>
-  </si>
-  <si>
     <t>存貨</t>
   </si>
   <si>
-    <t>10,148,150</t>
-  </si>
-  <si>
-    <t>10,076,004</t>
-  </si>
-  <si>
-    <t>9,662,029</t>
-  </si>
-  <si>
-    <t>9,286,227</t>
-  </si>
-  <si>
-    <t>10,658,127</t>
-  </si>
-  <si>
-    <t>10,115,835</t>
-  </si>
-  <si>
-    <t>10,197,101</t>
-  </si>
-  <si>
-    <t>10,470,879</t>
-  </si>
-  <si>
-    <t>9,976,103</t>
-  </si>
-  <si>
-    <t>9,795,623</t>
-  </si>
-  <si>
-    <t>9,248,095</t>
-  </si>
-  <si>
-    <t>8,941,127</t>
-  </si>
-  <si>
-    <t>8,485,209</t>
-  </si>
-  <si>
-    <t>8,314,191</t>
-  </si>
-  <si>
-    <t>8,221,800</t>
-  </si>
-  <si>
-    <t>8,893,965</t>
-  </si>
-  <si>
     <t>工程進度請款金額</t>
   </si>
   <si>
@@ -853,99 +178,12 @@
     <t>應付公司債</t>
   </si>
   <si>
-    <t>3,500,000</t>
-  </si>
-  <si>
     <t>應付帳款</t>
   </si>
   <si>
-    <t>8,856,139</t>
-  </si>
-  <si>
-    <t>9,747,833</t>
-  </si>
-  <si>
-    <t>8,228,020</t>
-  </si>
-  <si>
-    <t>8,245,257</t>
-  </si>
-  <si>
-    <t>9,623,722</t>
-  </si>
-  <si>
-    <t>8,629,940</t>
-  </si>
-  <si>
-    <t>8,490,289</t>
-  </si>
-  <si>
-    <t>7,056,837</t>
-  </si>
-  <si>
-    <t>6,739,703</t>
-  </si>
-  <si>
-    <t>8,643,687</t>
-  </si>
-  <si>
-    <t>6,892,421</t>
-  </si>
-  <si>
-    <t>6,943,854</t>
-  </si>
-  <si>
-    <t>5,982,644</t>
-  </si>
-  <si>
-    <t>6,804,530</t>
-  </si>
-  <si>
-    <t>6,650,515</t>
-  </si>
-  <si>
-    <t>7,671,640</t>
-  </si>
-  <si>
     <t>應付帳款－關係人</t>
   </si>
   <si>
-    <t>205,583</t>
-  </si>
-  <si>
-    <t>205,078</t>
-  </si>
-  <si>
-    <t>146,676</t>
-  </si>
-  <si>
-    <t>183,052</t>
-  </si>
-  <si>
-    <t>150,645</t>
-  </si>
-  <si>
-    <t>182,335</t>
-  </si>
-  <si>
-    <t>178,463</t>
-  </si>
-  <si>
-    <t>210,945</t>
-  </si>
-  <si>
-    <t>187,878</t>
-  </si>
-  <si>
-    <t>166,974</t>
-  </si>
-  <si>
-    <t>129,035</t>
-  </si>
-  <si>
-    <t>137,199</t>
-  </si>
-  <si>
     <t>應付建造合約款</t>
   </si>
   <si>
@@ -955,54 +193,6 @@
     <t>應付短期票券</t>
   </si>
   <si>
-    <t>4,129,331</t>
-  </si>
-  <si>
-    <t>3,848,811</t>
-  </si>
-  <si>
-    <t>5,653,573</t>
-  </si>
-  <si>
-    <t>5,102,283</t>
-  </si>
-  <si>
-    <t>5,247,145</t>
-  </si>
-  <si>
-    <t>5,341,062</t>
-  </si>
-  <si>
-    <t>6,924,607</t>
-  </si>
-  <si>
-    <t>6,370,508</t>
-  </si>
-  <si>
-    <t>6,124,655</t>
-  </si>
-  <si>
-    <t>5,643,553</t>
-  </si>
-  <si>
-    <t>6,131,288</t>
-  </si>
-  <si>
-    <t>6,159,780</t>
-  </si>
-  <si>
-    <t>7,908,199</t>
-  </si>
-  <si>
-    <t>5,851,897</t>
-  </si>
-  <si>
-    <t>7,678,660</t>
-  </si>
-  <si>
-    <t>5,921,518</t>
-  </si>
-  <si>
     <t>應付票據</t>
   </si>
   <si>
@@ -1012,207 +202,15 @@
     <t>應收帳款淨額</t>
   </si>
   <si>
-    <t>9,489,955</t>
-  </si>
-  <si>
-    <t>8,966,391</t>
-  </si>
-  <si>
-    <t>8,254,897</t>
-  </si>
-  <si>
-    <t>8,681,572</t>
-  </si>
-  <si>
-    <t>8,049,505</t>
-  </si>
-  <si>
-    <t>8,671,346</t>
-  </si>
-  <si>
-    <t>9,278,544</t>
-  </si>
-  <si>
-    <t>8,376,953</t>
-  </si>
-  <si>
-    <t>7,211,579</t>
-  </si>
-  <si>
-    <t>7,971,963</t>
-  </si>
-  <si>
-    <t>6,394,069</t>
-  </si>
-  <si>
-    <t>6,850,598</t>
-  </si>
-  <si>
-    <t>5,702,299</t>
-  </si>
-  <si>
-    <t>6,402,826</t>
-  </si>
-  <si>
-    <t>6,042,259</t>
-  </si>
-  <si>
-    <t>6,782,292</t>
-  </si>
-  <si>
     <t>應收帳款－關係人淨額</t>
   </si>
   <si>
-    <t>236,032</t>
-  </si>
-  <si>
-    <t>291,091</t>
-  </si>
-  <si>
-    <t>308,257</t>
-  </si>
-  <si>
-    <t>326,462</t>
-  </si>
-  <si>
-    <t>284,858</t>
-  </si>
-  <si>
-    <t>295,172</t>
-  </si>
-  <si>
-    <t>317,310</t>
-  </si>
-  <si>
-    <t>319,690</t>
-  </si>
-  <si>
-    <t>675,443</t>
-  </si>
-  <si>
-    <t>856,627</t>
-  </si>
-  <si>
-    <t>980,421</t>
-  </si>
-  <si>
-    <t>985,259</t>
-  </si>
-  <si>
-    <t>952,686</t>
-  </si>
-  <si>
-    <t>866,375</t>
-  </si>
-  <si>
-    <t>769,611</t>
-  </si>
-  <si>
-    <t>546,984</t>
-  </si>
-  <si>
     <t>應收票據淨額</t>
   </si>
   <si>
-    <t>8,919,088</t>
-  </si>
-  <si>
-    <t>10,870,904</t>
-  </si>
-  <si>
-    <t>14,562,063</t>
-  </si>
-  <si>
-    <t>16,589,337</t>
-  </si>
-  <si>
-    <t>14,400,651</t>
-  </si>
-  <si>
-    <t>15,920,604</t>
-  </si>
-  <si>
-    <t>17,602,181</t>
-  </si>
-  <si>
-    <t>17,846,977</t>
-  </si>
-  <si>
-    <t>13,871,378</t>
-  </si>
-  <si>
-    <t>12,528,747</t>
-  </si>
-  <si>
-    <t>12,328,553</t>
-  </si>
-  <si>
-    <t>12,377,095</t>
-  </si>
-  <si>
-    <t>8,471,683</t>
-  </si>
-  <si>
-    <t>9,838,636</t>
-  </si>
-  <si>
-    <t>10,128,788</t>
-  </si>
-  <si>
-    <t>12,600,411</t>
-  </si>
-  <si>
     <t>投資性不動產淨額</t>
   </si>
   <si>
-    <t>6,085,160</t>
-  </si>
-  <si>
-    <t>6,078,397</t>
-  </si>
-  <si>
-    <t>6,071,537</t>
-  </si>
-  <si>
-    <t>6,045,488</t>
-  </si>
-  <si>
-    <t>6,039,485</t>
-  </si>
-  <si>
-    <t>6,032,636</t>
-  </si>
-  <si>
-    <t>6,026,963</t>
-  </si>
-  <si>
-    <t>6,021,296</t>
-  </si>
-  <si>
-    <t>6,014,636</t>
-  </si>
-  <si>
-    <t>6,007,919</t>
-  </si>
-  <si>
-    <t>6,002,866</t>
-  </si>
-  <si>
-    <t>5,996,536</t>
-  </si>
-  <si>
-    <t>5,989,824</t>
-  </si>
-  <si>
-    <t>5,983,608</t>
-  </si>
-  <si>
-    <t>5,976,780</t>
-  </si>
-  <si>
-    <t>6,073,056</t>
-  </si>
-  <si>
     <t>按攤銷後成本衡量之金融負債－流動</t>
   </si>
   <si>
@@ -1222,513 +220,51 @@
     <t>採用權益法之投資淨額</t>
   </si>
   <si>
-    <t>7,460,075</t>
-  </si>
-  <si>
-    <t>7,912,439</t>
-  </si>
-  <si>
-    <t>8,067,842</t>
-  </si>
-  <si>
-    <t>8,028,252</t>
-  </si>
-  <si>
-    <t>7,914,971</t>
-  </si>
-  <si>
-    <t>7,845,242</t>
-  </si>
-  <si>
-    <t>8,331,553</t>
-  </si>
-  <si>
-    <t>7,671,335</t>
-  </si>
-  <si>
-    <t>7,779,030</t>
-  </si>
-  <si>
-    <t>7,565,075</t>
-  </si>
-  <si>
-    <t>8,054,261</t>
-  </si>
-  <si>
-    <t>8,013,265</t>
-  </si>
-  <si>
-    <t>7,927,247</t>
-  </si>
-  <si>
-    <t>7,724,871</t>
-  </si>
-  <si>
-    <t>7,724,396</t>
-  </si>
-  <si>
-    <t>7,444,947</t>
-  </si>
-  <si>
     <t>普通股股本</t>
   </si>
   <si>
-    <t>36,921,759</t>
-  </si>
-  <si>
     <t>未分配盈餘（或待彌補虧損）</t>
   </si>
   <si>
-    <t>17,295,884</t>
-  </si>
-  <si>
-    <t>20,726,453</t>
-  </si>
-  <si>
-    <t>23,488,214</t>
-  </si>
-  <si>
-    <t>25,321,353</t>
-  </si>
-  <si>
     <t>本期所得稅負債</t>
   </si>
   <si>
-    <t>1,597,080</t>
-  </si>
-  <si>
-    <t>1,060,679</t>
-  </si>
-  <si>
-    <t>793,415</t>
-  </si>
-  <si>
-    <t>1,214,642</t>
-  </si>
-  <si>
-    <t>1,340,178</t>
-  </si>
-  <si>
-    <t>877,862</t>
-  </si>
-  <si>
-    <t>795,600</t>
-  </si>
-  <si>
-    <t>1,324,329</t>
-  </si>
-  <si>
     <t>權益總計</t>
   </si>
   <si>
-    <t>145,365,698</t>
-  </si>
-  <si>
-    <t>139,207,168</t>
-  </si>
-  <si>
-    <t>145,196,356</t>
-  </si>
-  <si>
-    <t>153,618,577</t>
-  </si>
-  <si>
-    <t>158,255,100</t>
-  </si>
-  <si>
-    <t>147,496,365</t>
-  </si>
-  <si>
-    <t>153,411,035</t>
-  </si>
-  <si>
-    <t>162,017,681</t>
-  </si>
-  <si>
-    <t>162,219,457</t>
-  </si>
-  <si>
-    <t>150,965,857</t>
-  </si>
-  <si>
-    <t>157,639,379</t>
-  </si>
-  <si>
-    <t>155,484,252</t>
-  </si>
-  <si>
-    <t>154,750,268</t>
-  </si>
-  <si>
-    <t>146,772,743</t>
-  </si>
-  <si>
-    <t>145,457,904</t>
-  </si>
-  <si>
-    <t>147,396,671</t>
-  </si>
-  <si>
     <t>歸屬於母公司業主之權益合計</t>
   </si>
   <si>
-    <t>107,872,920</t>
-  </si>
-  <si>
-    <t>101,767,224</t>
-  </si>
-  <si>
-    <t>106,629,255</t>
-  </si>
-  <si>
-    <t>113,077,945</t>
-  </si>
-  <si>
-    <t>117,094,940</t>
-  </si>
-  <si>
-    <t>107,880,371</t>
-  </si>
-  <si>
-    <t>111,500,190</t>
-  </si>
-  <si>
-    <t>117,958,870</t>
-  </si>
-  <si>
-    <t>118,307,697</t>
-  </si>
-  <si>
-    <t>109,626,077</t>
-  </si>
-  <si>
-    <t>109,456,232</t>
-  </si>
-  <si>
-    <t>108,042,985</t>
-  </si>
-  <si>
-    <t>107,709,460</t>
-  </si>
-  <si>
-    <t>102,334,404</t>
-  </si>
-  <si>
-    <t>105,176,028</t>
-  </si>
-  <si>
-    <t>106,768,051</t>
-  </si>
-  <si>
     <t>母公司暨子公司所持有之母公司庫藏股股數（單位：股）</t>
   </si>
   <si>
     <t>法定盈餘公積</t>
   </si>
   <si>
-    <t>10,726,105</t>
-  </si>
-  <si>
     <t>流動負債合計</t>
   </si>
   <si>
-    <t>65,913,019</t>
-  </si>
-  <si>
-    <t>68,971,246</t>
-  </si>
-  <si>
-    <t>73,733,391</t>
-  </si>
-  <si>
-    <t>70,398,494</t>
-  </si>
-  <si>
-    <t>74,388,787</t>
-  </si>
-  <si>
-    <t>81,190,613</t>
-  </si>
-  <si>
-    <t>78,920,574</t>
-  </si>
-  <si>
-    <t>68,632,044</t>
-  </si>
-  <si>
-    <t>69,579,858</t>
-  </si>
-  <si>
-    <t>78,918,446</t>
-  </si>
-  <si>
-    <t>70,796,103</t>
-  </si>
-  <si>
-    <t>68,083,832</t>
-  </si>
-  <si>
-    <t>64,818,835</t>
-  </si>
-  <si>
-    <t>58,857,466</t>
-  </si>
-  <si>
-    <t>61,983,521</t>
-  </si>
-  <si>
-    <t>55,104,919</t>
-  </si>
-  <si>
     <t>流動資產合計</t>
   </si>
   <si>
-    <t>77,246,355</t>
-  </si>
-  <si>
-    <t>77,139,390</t>
-  </si>
-  <si>
-    <t>77,212,043</t>
-  </si>
-  <si>
-    <t>87,788,055</t>
-  </si>
-  <si>
-    <t>92,121,458</t>
-  </si>
-  <si>
-    <t>89,163,129</t>
-  </si>
-  <si>
-    <t>89,472,928</t>
-  </si>
-  <si>
-    <t>96,605,816</t>
-  </si>
-  <si>
-    <t>92,471,096</t>
-  </si>
-  <si>
-    <t>95,602,989</t>
-  </si>
-  <si>
-    <t>90,814,601</t>
-  </si>
-  <si>
-    <t>90,593,376</t>
-  </si>
-  <si>
-    <t>78,482,102</t>
-  </si>
-  <si>
-    <t>72,814,811</t>
-  </si>
-  <si>
-    <t>74,178,175</t>
-  </si>
-  <si>
-    <t>77,884,012</t>
-  </si>
-  <si>
     <t>無形資產</t>
   </si>
   <si>
-    <t>19,111,565</t>
-  </si>
-  <si>
-    <t>19,486,078</t>
-  </si>
-  <si>
-    <t>19,255,712</t>
-  </si>
-  <si>
-    <t>19,495,931</t>
-  </si>
-  <si>
-    <t>19,439,255</t>
-  </si>
-  <si>
-    <t>19,155,139</t>
-  </si>
-  <si>
-    <t>19,321,443</t>
-  </si>
-  <si>
-    <t>19,542,637</t>
-  </si>
-  <si>
-    <t>19,879,896</t>
-  </si>
-  <si>
-    <t>21,768,685</t>
-  </si>
-  <si>
-    <t>22,935,744</t>
-  </si>
-  <si>
-    <t>22,607,552</t>
-  </si>
-  <si>
-    <t>22,341,314</t>
-  </si>
-  <si>
-    <t>21,978,037</t>
-  </si>
-  <si>
-    <t>21,389,833</t>
-  </si>
-  <si>
-    <t>21,175,282</t>
-  </si>
-  <si>
     <t>特別盈餘公積</t>
   </si>
   <si>
-    <t>13,053,436</t>
-  </si>
-  <si>
-    <t>13,053,491</t>
-  </si>
-  <si>
-    <t>13,051,193</t>
-  </si>
-  <si>
     <t>現金及約當現金</t>
   </si>
   <si>
-    <t>18,994,984</t>
-  </si>
-  <si>
-    <t>20,171,167</t>
-  </si>
-  <si>
-    <t>19,104,057</t>
-  </si>
-  <si>
-    <t>25,711,065</t>
-  </si>
-  <si>
-    <t>29,329,415</t>
-  </si>
-  <si>
-    <t>29,177,252</t>
-  </si>
-  <si>
-    <t>27,917,164</t>
-  </si>
-  <si>
-    <t>30,514,042</t>
-  </si>
-  <si>
-    <t>31,406,216</t>
-  </si>
-  <si>
-    <t>35,848,634</t>
-  </si>
-  <si>
-    <t>35,931,378</t>
-  </si>
-  <si>
-    <t>38,977,360</t>
-  </si>
-  <si>
-    <t>31,747,040</t>
-  </si>
-  <si>
-    <t>26,182,757</t>
-  </si>
-  <si>
-    <t>27,229,371</t>
-  </si>
-  <si>
-    <t>28,179,758</t>
-  </si>
-  <si>
     <t>現金流量避險中屬有效避險部分之避險工具利益（損失）</t>
   </si>
   <si>
-    <t>-15,264</t>
-  </si>
-  <si>
     <t>當期所得稅負債</t>
   </si>
   <si>
-    <t>1,416,789</t>
-  </si>
-  <si>
-    <t>913,601</t>
-  </si>
-  <si>
-    <t>1,180,194</t>
-  </si>
-  <si>
-    <t>1,899,948</t>
-  </si>
-  <si>
-    <t>1,702,730</t>
-  </si>
-  <si>
-    <t>1,468,259</t>
-  </si>
-  <si>
-    <t>1,443,139</t>
-  </si>
-  <si>
-    <t>2,226,142</t>
-  </si>
-  <si>
     <t>短期借款</t>
   </si>
   <si>
-    <t>18,455,981</t>
-  </si>
-  <si>
-    <t>16,187,106</t>
-  </si>
-  <si>
-    <t>25,101,401</t>
-  </si>
-  <si>
-    <t>18,521,893</t>
-  </si>
-  <si>
-    <t>24,434,534</t>
-  </si>
-  <si>
-    <t>18,931,653</t>
-  </si>
-  <si>
-    <t>27,455,949</t>
-  </si>
-  <si>
-    <t>22,975,404</t>
-  </si>
-  <si>
-    <t>26,352,924</t>
-  </si>
-  <si>
-    <t>23,599,288</t>
-  </si>
-  <si>
-    <t>29,597,568</t>
-  </si>
-  <si>
-    <t>22,325,389</t>
-  </si>
-  <si>
-    <t>20,205,800</t>
-  </si>
-  <si>
-    <t>15,749,372</t>
-  </si>
-  <si>
-    <t>21,325,725</t>
-  </si>
-  <si>
-    <t>20,635,324</t>
-  </si>
-  <si>
     <t>股本合計</t>
   </si>
   <si>
@@ -1738,30 +274,6 @@
     <t>負債及權益總計</t>
   </si>
   <si>
-    <t>289,782,835</t>
-  </si>
-  <si>
-    <t>299,879,447</t>
-  </si>
-  <si>
-    <t>296,748,604</t>
-  </si>
-  <si>
-    <t>293,066,355</t>
-  </si>
-  <si>
-    <t>278,830,039</t>
-  </si>
-  <si>
-    <t>268,777,321</t>
-  </si>
-  <si>
-    <t>265,077,946</t>
-  </si>
-  <si>
-    <t>266,988,696</t>
-  </si>
-  <si>
     <t>負債準備－流動</t>
   </si>
   <si>
@@ -1771,120 +283,12 @@
     <t>負債總計</t>
   </si>
   <si>
-    <t>127,469,535</t>
-  </si>
-  <si>
-    <t>134,437,287</t>
-  </si>
-  <si>
-    <t>126,796,585</t>
-  </si>
-  <si>
-    <t>129,062,162</t>
-  </si>
-  <si>
-    <t>127,507,218</t>
-  </si>
-  <si>
-    <t>133,117,207</t>
-  </si>
-  <si>
-    <t>129,211,890</t>
-  </si>
-  <si>
-    <t>130,726,151</t>
-  </si>
-  <si>
-    <t>127,563,378</t>
-  </si>
-  <si>
-    <t>148,913,590</t>
-  </si>
-  <si>
-    <t>139,109,225</t>
-  </si>
-  <si>
-    <t>137,582,103</t>
-  </si>
-  <si>
-    <t>124,079,771</t>
-  </si>
-  <si>
-    <t>122,004,578</t>
-  </si>
-  <si>
-    <t>119,620,042</t>
-  </si>
-  <si>
-    <t>119,592,025</t>
-  </si>
-  <si>
     <t>資本公積合計</t>
   </si>
   <si>
-    <t>12,215,684</t>
-  </si>
-  <si>
-    <t>12,192,857</t>
-  </si>
-  <si>
-    <t>12,193,297</t>
-  </si>
-  <si>
-    <t>12,195,117</t>
-  </si>
-  <si>
-    <t>12,227,447</t>
-  </si>
-  <si>
-    <t>12,226,214</t>
-  </si>
-  <si>
-    <t>12,225,528</t>
-  </si>
-  <si>
-    <t>12,225,234</t>
-  </si>
-  <si>
-    <t>12,225,088</t>
-  </si>
-  <si>
-    <t>12,310,531</t>
-  </si>
-  <si>
-    <t>12,309,615</t>
-  </si>
-  <si>
-    <t>13,534,162</t>
-  </si>
-  <si>
     <t>資產總計</t>
   </si>
   <si>
-    <t>272,835,233</t>
-  </si>
-  <si>
-    <t>273,644,455</t>
-  </si>
-  <si>
-    <t>271,992,941</t>
-  </si>
-  <si>
-    <t>282,680,739</t>
-  </si>
-  <si>
-    <t>285,762,318</t>
-  </si>
-  <si>
-    <t>280,613,572</t>
-  </si>
-  <si>
-    <t>282,622,925</t>
-  </si>
-  <si>
-    <t>292,743,832</t>
-  </si>
-  <si>
     <t>透過損益按公允價值衡量之金融負債－流動</t>
   </si>
   <si>
@@ -1894,105 +298,9 @@
     <t>透過損益按公允價值衡量之金融資產－流動</t>
   </si>
   <si>
-    <t>271,687</t>
-  </si>
-  <si>
-    <t>275,130</t>
-  </si>
-  <si>
-    <t>219,373</t>
-  </si>
-  <si>
-    <t>215,182</t>
-  </si>
-  <si>
-    <t>176,175</t>
-  </si>
-  <si>
-    <t>175,677</t>
-  </si>
-  <si>
-    <t>176,032</t>
-  </si>
-  <si>
-    <t>176,865</t>
-  </si>
-  <si>
-    <t>146,388</t>
-  </si>
-  <si>
-    <t>145,919</t>
-  </si>
-  <si>
-    <t>148,581</t>
-  </si>
-  <si>
-    <t>147,113</t>
-  </si>
-  <si>
-    <t>146,462</t>
-  </si>
-  <si>
-    <t>146,656</t>
-  </si>
-  <si>
-    <t>162,966</t>
-  </si>
-  <si>
-    <t>148,488</t>
-  </si>
-  <si>
     <t>遞延所得稅負債</t>
   </si>
   <si>
-    <t>9,353,869</t>
-  </si>
-  <si>
-    <t>9,458,082</t>
-  </si>
-  <si>
-    <t>9,569,927</t>
-  </si>
-  <si>
-    <t>9,679,623</t>
-  </si>
-  <si>
-    <t>9,770,177</t>
-  </si>
-  <si>
-    <t>9,802,019</t>
-  </si>
-  <si>
-    <t>9,889,494</t>
-  </si>
-  <si>
-    <t>10,078,645</t>
-  </si>
-  <si>
-    <t>10,173,593</t>
-  </si>
-  <si>
-    <t>10,670,566</t>
-  </si>
-  <si>
-    <t>10,471,711</t>
-  </si>
-  <si>
-    <t>10,268,560</t>
-  </si>
-  <si>
-    <t>10,298,826</t>
-  </si>
-  <si>
-    <t>10,297,263</t>
-  </si>
-  <si>
-    <t>10,271,611</t>
-  </si>
-  <si>
-    <t>10,213,967</t>
-  </si>
-  <si>
     <t>避險之衍生金融負債－流動</t>
   </si>
   <si>
@@ -2002,256 +310,16 @@
     <t>長期借款</t>
   </si>
   <si>
-    <t>47,803,800</t>
-  </si>
-  <si>
-    <t>50,736,261</t>
-  </si>
-  <si>
-    <t>38,396,562</t>
-  </si>
-  <si>
-    <t>47,342,350</t>
-  </si>
-  <si>
-    <t>41,724,407</t>
-  </si>
-  <si>
-    <t>41,520,619</t>
-  </si>
-  <si>
-    <t>38,750,230</t>
-  </si>
-  <si>
-    <t>50,457,481</t>
-  </si>
-  <si>
-    <t>46,330,613</t>
-  </si>
-  <si>
-    <t>57,936,547</t>
-  </si>
-  <si>
-    <t>56,537,977</t>
-  </si>
-  <si>
-    <t>57,986,194</t>
-  </si>
-  <si>
-    <t>47,773,790</t>
-  </si>
-  <si>
-    <t>51,772,729</t>
-  </si>
-  <si>
-    <t>46,359,096</t>
-  </si>
-  <si>
-    <t>53,342,059</t>
-  </si>
-  <si>
     <t>非控制權益</t>
   </si>
   <si>
-    <t>37,492,778</t>
-  </si>
-  <si>
-    <t>37,439,944</t>
-  </si>
-  <si>
-    <t>38,567,101</t>
-  </si>
-  <si>
-    <t>40,540,632</t>
-  </si>
-  <si>
-    <t>41,160,160</t>
-  </si>
-  <si>
-    <t>39,615,994</t>
-  </si>
-  <si>
-    <t>41,910,845</t>
-  </si>
-  <si>
-    <t>44,058,811</t>
-  </si>
-  <si>
-    <t>43,911,760</t>
-  </si>
-  <si>
-    <t>41,339,780</t>
-  </si>
-  <si>
-    <t>48,183,147</t>
-  </si>
-  <si>
-    <t>47,441,267</t>
-  </si>
-  <si>
-    <t>47,040,808</t>
-  </si>
-  <si>
-    <t>44,438,339</t>
-  </si>
-  <si>
-    <t>40,281,876</t>
-  </si>
-  <si>
-    <t>40,628,620</t>
-  </si>
-  <si>
     <t>非流動負債合計</t>
   </si>
   <si>
-    <t>61,556,516</t>
-  </si>
-  <si>
-    <t>65,466,041</t>
-  </si>
-  <si>
-    <t>53,063,194</t>
-  </si>
-  <si>
-    <t>58,663,668</t>
-  </si>
-  <si>
-    <t>53,118,431</t>
-  </si>
-  <si>
-    <t>51,926,594</t>
-  </si>
-  <si>
-    <t>50,291,316</t>
-  </si>
-  <si>
-    <t>62,094,107</t>
-  </si>
-  <si>
-    <t>57,983,520</t>
-  </si>
-  <si>
-    <t>69,995,144</t>
-  </si>
-  <si>
-    <t>68,313,122</t>
-  </si>
-  <si>
-    <t>69,498,271</t>
-  </si>
-  <si>
-    <t>59,260,936</t>
-  </si>
-  <si>
-    <t>63,147,112</t>
-  </si>
-  <si>
-    <t>57,636,521</t>
-  </si>
-  <si>
-    <t>64,487,106</t>
-  </si>
-  <si>
     <t>非流動資產合計</t>
   </si>
   <si>
-    <t>195,588,878</t>
-  </si>
-  <si>
-    <t>196,505,065</t>
-  </si>
-  <si>
-    <t>194,780,898</t>
-  </si>
-  <si>
-    <t>194,892,684</t>
-  </si>
-  <si>
-    <t>193,640,860</t>
-  </si>
-  <si>
-    <t>191,450,443</t>
-  </si>
-  <si>
-    <t>193,149,997</t>
-  </si>
-  <si>
-    <t>196,138,016</t>
-  </si>
-  <si>
-    <t>197,311,739</t>
-  </si>
-  <si>
-    <t>204,276,458</t>
-  </si>
-  <si>
-    <t>205,934,003</t>
-  </si>
-  <si>
-    <t>202,472,979</t>
-  </si>
-  <si>
-    <t>200,347,937</t>
-  </si>
-  <si>
-    <t>195,962,510</t>
-  </si>
-  <si>
-    <t>190,899,771</t>
-  </si>
-  <si>
-    <t>189,104,684</t>
-  </si>
-  <si>
     <t>預付款項</t>
-  </si>
-  <si>
-    <t>4,568,191</t>
-  </si>
-  <si>
-    <t>5,042,304</t>
-  </si>
-  <si>
-    <t>3,938,338</t>
-  </si>
-  <si>
-    <t>4,480,308</t>
-  </si>
-  <si>
-    <t>4,796,565</t>
-  </si>
-  <si>
-    <t>4,106,227</t>
-  </si>
-  <si>
-    <t>4,375,279</t>
-  </si>
-  <si>
-    <t>3,833,064</t>
-  </si>
-  <si>
-    <t>4,254,712</t>
-  </si>
-  <si>
-    <t>3,533,996</t>
-  </si>
-  <si>
-    <t>3,915,021</t>
-  </si>
-  <si>
-    <t>3,286,150</t>
-  </si>
-  <si>
-    <t>3,614,374</t>
-  </si>
-  <si>
-    <t>2,950,736</t>
-  </si>
-  <si>
-    <t>3,570,376</t>
-  </si>
-  <si>
-    <t>2,955,246</t>
   </si>
   <si>
     <t>預收股款（權益項下）之約當發行股數（單位：股）</t>
@@ -2713,98 +781,98 @@
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
+      <c r="B2" t="n">
+        <v>111042032</v>
       </c>
       <c r="C2" t="n">
         <v>40.7</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
+      <c r="D2" t="n">
+        <v>110739317</v>
       </c>
       <c r="E2" t="n">
         <v>40.47</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
+      <c r="F2" t="n">
+        <v>109851867</v>
       </c>
       <c r="G2" t="n">
         <v>40.39</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
+      <c r="H2" t="n">
+        <v>109369671</v>
       </c>
       <c r="I2" t="n">
         <v>38.69</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
+      <c r="J2" t="n">
+        <v>108111081</v>
       </c>
       <c r="K2" t="n">
         <v>37.83</v>
       </c>
-      <c r="L2" t="s">
-        <v>38</v>
+      <c r="L2" t="n">
+        <v>106252824</v>
       </c>
       <c r="M2" t="n">
         <v>37.86</v>
       </c>
-      <c r="N2" t="s">
-        <v>39</v>
+      <c r="N2" t="n">
+        <v>106972592</v>
       </c>
       <c r="O2" t="n">
         <v>37.85</v>
       </c>
-      <c r="P2" t="s">
-        <v>40</v>
+      <c r="P2" t="n">
+        <v>108445563</v>
       </c>
       <c r="Q2" t="n">
         <v>37.04</v>
       </c>
-      <c r="R2" t="s">
-        <v>41</v>
+      <c r="R2" t="n">
+        <v>110651850</v>
       </c>
       <c r="S2" t="n">
         <v>38.18</v>
       </c>
-      <c r="T2" t="s">
-        <v>42</v>
+      <c r="T2" t="n">
+        <v>116103732</v>
       </c>
       <c r="U2" t="n">
         <v>38.72</v>
       </c>
-      <c r="V2" t="s">
-        <v>43</v>
+      <c r="V2" t="n">
+        <v>116584284</v>
       </c>
       <c r="W2" t="n">
         <v>39.29</v>
       </c>
-      <c r="X2" t="s">
-        <v>44</v>
+      <c r="X2" t="n">
+        <v>113310134</v>
       </c>
       <c r="Y2" t="n">
         <v>38.66</v>
       </c>
-      <c r="Z2" t="s">
-        <v>45</v>
+      <c r="Z2" t="n">
+        <v>110936901</v>
       </c>
       <c r="AA2" t="n">
         <v>39.79</v>
       </c>
-      <c r="AB2" t="s">
-        <v>46</v>
+      <c r="AB2" t="n">
+        <v>107998519</v>
       </c>
       <c r="AC2" t="n">
         <v>40.18</v>
       </c>
-      <c r="AD2" t="s">
-        <v>47</v>
+      <c r="AD2" t="n">
+        <v>104145693</v>
       </c>
       <c r="AE2" t="n">
         <v>39.29</v>
       </c>
-      <c r="AF2" t="s">
-        <v>48</v>
+      <c r="AF2" t="n">
+        <v>101799766</v>
       </c>
       <c r="AG2" t="n">
         <v>38.13</v>
@@ -2812,7 +880,7 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s"/>
       <c r="C3" t="s"/>
@@ -2828,8 +896,8 @@
       <c r="M3" t="s"/>
       <c r="N3" t="s"/>
       <c r="O3" t="s"/>
-      <c r="P3" t="s">
-        <v>50</v>
+      <c r="P3" t="n">
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -2853,7 +921,7 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s"/>
       <c r="C4" t="s"/>
@@ -2869,8 +937,8 @@
       <c r="M4" t="s"/>
       <c r="N4" t="s"/>
       <c r="O4" t="s"/>
-      <c r="P4" t="s">
-        <v>50</v>
+      <c r="P4" t="n">
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -2894,100 +962,100 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="n">
+        <v>616490</v>
       </c>
       <c r="C5" t="n">
         <v>0.23</v>
       </c>
-      <c r="D5" t="s">
-        <v>54</v>
+      <c r="D5" t="n">
+        <v>579264</v>
       </c>
       <c r="E5" t="n">
         <v>0.21</v>
       </c>
-      <c r="F5" t="s">
-        <v>55</v>
+      <c r="F5" t="n">
+        <v>579099</v>
       </c>
       <c r="G5" t="n">
         <v>0.21</v>
       </c>
-      <c r="H5" t="s">
-        <v>56</v>
+      <c r="H5" t="n">
+        <v>579192</v>
       </c>
       <c r="I5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J5" t="s">
-        <v>57</v>
+      <c r="J5" t="n">
+        <v>579451</v>
       </c>
       <c r="K5" t="n">
         <v>0.2</v>
       </c>
-      <c r="L5" t="s">
-        <v>58</v>
+      <c r="L5" t="n">
+        <v>557352</v>
       </c>
       <c r="M5" t="n">
         <v>0.2</v>
       </c>
-      <c r="N5" t="s">
-        <v>59</v>
+      <c r="N5" t="n">
+        <v>557353</v>
       </c>
       <c r="O5" t="n">
         <v>0.2</v>
       </c>
-      <c r="P5" t="s">
-        <v>60</v>
+      <c r="P5" t="n">
+        <v>546028</v>
       </c>
       <c r="Q5" t="n">
         <v>0.19</v>
       </c>
-      <c r="R5" t="s">
-        <v>61</v>
+      <c r="R5" t="n">
+        <v>545892</v>
       </c>
       <c r="S5" t="n">
         <v>0.19</v>
       </c>
-      <c r="T5" t="s">
-        <v>62</v>
+      <c r="T5" t="n">
+        <v>821821</v>
       </c>
       <c r="U5" t="n">
         <v>0.27</v>
       </c>
-      <c r="V5" t="s">
-        <v>63</v>
+      <c r="V5" t="n">
+        <v>822628</v>
       </c>
       <c r="W5" t="n">
         <v>0.28</v>
       </c>
-      <c r="X5" t="s">
-        <v>64</v>
+      <c r="X5" t="n">
+        <v>822609</v>
       </c>
       <c r="Y5" t="n">
         <v>0.28</v>
       </c>
-      <c r="Z5" t="s">
-        <v>65</v>
+      <c r="Z5" t="n">
+        <v>822346</v>
       </c>
       <c r="AA5" t="n">
         <v>0.29</v>
       </c>
-      <c r="AB5" t="s">
-        <v>66</v>
+      <c r="AB5" t="n">
+        <v>810789</v>
       </c>
       <c r="AC5" t="n">
         <v>0.3</v>
       </c>
-      <c r="AD5" t="s">
-        <v>67</v>
+      <c r="AD5" t="n">
+        <v>810435</v>
       </c>
       <c r="AE5" t="n">
         <v>0.31</v>
       </c>
-      <c r="AF5" t="s">
-        <v>68</v>
+      <c r="AF5" t="n">
+        <v>589736</v>
       </c>
       <c r="AG5" t="n">
         <v>0.22</v>
@@ -2995,100 +1063,100 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="n">
+        <v>45521147</v>
       </c>
       <c r="C6" t="n">
         <v>16.68</v>
       </c>
-      <c r="D6" t="s">
-        <v>71</v>
+      <c r="D6" t="n">
+        <v>41075425</v>
       </c>
       <c r="E6" t="n">
         <v>15.01</v>
       </c>
-      <c r="F6" t="s">
-        <v>72</v>
+      <c r="F6" t="n">
+        <v>44506049</v>
       </c>
       <c r="G6" t="n">
         <v>16.36</v>
       </c>
-      <c r="H6" t="s">
-        <v>73</v>
+      <c r="H6" t="n">
+        <v>47265512</v>
       </c>
       <c r="I6" t="n">
         <v>16.72</v>
       </c>
-      <c r="J6" t="s">
-        <v>74</v>
+      <c r="J6" t="n">
+        <v>49098651</v>
       </c>
       <c r="K6" t="n">
         <v>17.18</v>
       </c>
-      <c r="L6" t="s">
-        <v>75</v>
+      <c r="L6" t="n">
+        <v>43802392</v>
       </c>
       <c r="M6" t="n">
         <v>15.61</v>
       </c>
-      <c r="N6" t="s">
-        <v>76</v>
+      <c r="N6" t="n">
+        <v>47018226</v>
       </c>
       <c r="O6" t="n">
         <v>16.64</v>
       </c>
-      <c r="P6" t="s">
-        <v>77</v>
+      <c r="P6" t="n">
+        <v>49530227</v>
       </c>
       <c r="Q6" t="n">
         <v>16.92</v>
       </c>
-      <c r="R6" t="s">
-        <v>78</v>
+      <c r="R6" t="n">
+        <v>50339005</v>
       </c>
       <c r="S6" t="n">
         <v>17.37</v>
       </c>
-      <c r="T6" t="s">
-        <v>79</v>
+      <c r="T6" t="n">
+        <v>43388616</v>
       </c>
       <c r="U6" t="n">
         <v>14.47</v>
       </c>
-      <c r="V6" t="s">
-        <v>80</v>
+      <c r="V6" t="n">
+        <v>44337361</v>
       </c>
       <c r="W6" t="n">
         <v>14.94</v>
       </c>
-      <c r="X6" t="s">
-        <v>81</v>
+      <c r="X6" t="n">
+        <v>45573057</v>
       </c>
       <c r="Y6" t="n">
         <v>15.55</v>
       </c>
-      <c r="Z6" t="s">
-        <v>82</v>
+      <c r="Z6" t="n">
+        <v>45794052</v>
       </c>
       <c r="AA6" t="n">
         <v>16.42</v>
       </c>
-      <c r="AB6" t="s">
-        <v>83</v>
+      <c r="AB6" t="n">
+        <v>42887203</v>
       </c>
       <c r="AC6" t="n">
         <v>15.96</v>
       </c>
-      <c r="AD6" t="s">
-        <v>84</v>
+      <c r="AD6" t="n">
+        <v>45208495</v>
       </c>
       <c r="AE6" t="n">
         <v>17.05</v>
       </c>
-      <c r="AF6" t="s">
-        <v>85</v>
+      <c r="AF6" t="n">
+        <v>47337524</v>
       </c>
       <c r="AG6" t="n">
         <v>17.73</v>
@@ -3096,10 +1164,10 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
+        <v>37</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12911598</v>
       </c>
       <c r="C7" t="n">
         <v>4.73</v>
@@ -3137,100 +1205,100 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
+        <v>38</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15066125</v>
       </c>
       <c r="C8" t="n">
         <v>5.52</v>
       </c>
-      <c r="D8" t="s">
-        <v>90</v>
+      <c r="D8" t="n">
+        <v>13111745</v>
       </c>
       <c r="E8" t="n">
         <v>4.79</v>
       </c>
-      <c r="F8" t="s">
-        <v>91</v>
+      <c r="F8" t="n">
+        <v>14829149</v>
       </c>
       <c r="G8" t="n">
         <v>5.45</v>
       </c>
-      <c r="H8" t="s">
-        <v>92</v>
+      <c r="H8" t="n">
+        <v>19165866</v>
       </c>
       <c r="I8" t="n">
         <v>6.78</v>
       </c>
-      <c r="J8" t="s">
-        <v>93</v>
+      <c r="J8" t="n">
+        <v>21266329</v>
       </c>
       <c r="K8" t="n">
         <v>7.44</v>
       </c>
-      <c r="L8" t="s">
-        <v>94</v>
+      <c r="L8" t="n">
+        <v>17961287</v>
       </c>
       <c r="M8" t="n">
         <v>6.4</v>
       </c>
-      <c r="N8" t="s">
-        <v>95</v>
+      <c r="N8" t="n">
+        <v>17125047</v>
       </c>
       <c r="O8" t="n">
         <v>6.06</v>
       </c>
-      <c r="P8" t="s">
-        <v>96</v>
+      <c r="P8" t="n">
+        <v>19615395</v>
       </c>
       <c r="Q8" t="n">
         <v>6.7</v>
       </c>
-      <c r="R8" t="s">
-        <v>97</v>
+      <c r="R8" t="n">
+        <v>19582139</v>
       </c>
       <c r="S8" t="n">
         <v>6.76</v>
       </c>
-      <c r="T8" t="s">
-        <v>98</v>
+      <c r="T8" t="n">
+        <v>18260651</v>
       </c>
       <c r="U8" t="n">
         <v>6.09</v>
       </c>
-      <c r="V8" t="s">
-        <v>99</v>
+      <c r="V8" t="n">
+        <v>16358225</v>
       </c>
       <c r="W8" t="n">
         <v>5.51</v>
       </c>
-      <c r="X8" t="s">
-        <v>100</v>
+      <c r="X8" t="n">
+        <v>15227906</v>
       </c>
       <c r="Y8" t="n">
         <v>5.2</v>
       </c>
-      <c r="Z8" t="s">
-        <v>101</v>
+      <c r="Z8" t="n">
+        <v>14972453</v>
       </c>
       <c r="AA8" t="n">
         <v>5.37</v>
       </c>
-      <c r="AB8" t="s">
-        <v>102</v>
+      <c r="AB8" t="n">
+        <v>14095190</v>
       </c>
       <c r="AC8" t="n">
         <v>5.24</v>
       </c>
-      <c r="AD8" t="s">
-        <v>103</v>
+      <c r="AD8" t="n">
+        <v>15375305</v>
       </c>
       <c r="AE8" t="n">
         <v>5.8</v>
       </c>
-      <c r="AF8" t="s">
-        <v>104</v>
+      <c r="AF8" t="n">
+        <v>15536693</v>
       </c>
       <c r="AG8" t="n">
         <v>5.82</v>
@@ -3238,100 +1306,100 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4775276</v>
       </c>
       <c r="C9" t="n">
         <v>1.75</v>
       </c>
-      <c r="D9" t="s">
-        <v>107</v>
+      <c r="D9" t="n">
+        <v>4606311</v>
       </c>
       <c r="E9" t="n">
         <v>1.68</v>
       </c>
-      <c r="F9" t="s">
-        <v>108</v>
+      <c r="F9" t="n">
+        <v>4507469</v>
       </c>
       <c r="G9" t="n">
         <v>1.66</v>
       </c>
-      <c r="H9" t="s">
-        <v>109</v>
+      <c r="H9" t="n">
+        <v>4551126</v>
       </c>
       <c r="I9" t="n">
         <v>1.61</v>
       </c>
-      <c r="J9" t="s">
-        <v>110</v>
+      <c r="J9" t="n">
+        <v>4818344</v>
       </c>
       <c r="K9" t="n">
         <v>1.69</v>
       </c>
-      <c r="L9" t="s">
-        <v>111</v>
+      <c r="L9" t="n">
+        <v>5006364</v>
       </c>
       <c r="M9" t="n">
         <v>1.78</v>
       </c>
-      <c r="N9" t="s">
-        <v>112</v>
+      <c r="N9" t="n">
+        <v>5076401</v>
       </c>
       <c r="O9" t="n">
         <v>1.8</v>
       </c>
-      <c r="P9" t="s">
-        <v>113</v>
+      <c r="P9" t="n">
+        <v>5022536</v>
       </c>
       <c r="Q9" t="n">
         <v>1.72</v>
       </c>
-      <c r="R9" t="s">
-        <v>114</v>
+      <c r="R9" t="n">
+        <v>5101127</v>
       </c>
       <c r="S9" t="n">
         <v>1.76</v>
       </c>
-      <c r="T9" t="s">
-        <v>115</v>
+      <c r="T9" t="n">
+        <v>5043058</v>
       </c>
       <c r="U9" t="n">
         <v>1.68</v>
       </c>
-      <c r="V9" t="s">
-        <v>116</v>
+      <c r="V9" t="n">
+        <v>4062414</v>
       </c>
       <c r="W9" t="n">
         <v>1.37</v>
       </c>
-      <c r="X9" t="s">
-        <v>117</v>
+      <c r="X9" t="n">
+        <v>3990535</v>
       </c>
       <c r="Y9" t="n">
         <v>1.36</v>
       </c>
-      <c r="Z9" t="s">
-        <v>118</v>
+      <c r="Z9" t="n">
+        <v>4179171</v>
       </c>
       <c r="AA9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AB9" t="s">
-        <v>119</v>
+      <c r="AB9" t="n">
+        <v>3932343</v>
       </c>
       <c r="AC9" t="n">
         <v>1.46</v>
       </c>
-      <c r="AD9" t="s">
-        <v>120</v>
+      <c r="AD9" t="n">
+        <v>4026846</v>
       </c>
       <c r="AE9" t="n">
         <v>1.52</v>
       </c>
-      <c r="AF9" t="s">
-        <v>121</v>
+      <c r="AF9" t="n">
+        <v>4190855</v>
       </c>
       <c r="AG9" t="n">
         <v>1.57</v>
@@ -3339,100 +1407,100 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" t="s">
-        <v>123</v>
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9369864</v>
       </c>
       <c r="C10" t="n">
         <v>3.43</v>
       </c>
-      <c r="D10" t="s">
-        <v>124</v>
+      <c r="D10" t="n">
+        <v>15731120</v>
       </c>
       <c r="E10" t="n">
         <v>5.75</v>
       </c>
-      <c r="F10" t="s">
-        <v>125</v>
+      <c r="F10" t="n">
+        <v>8459764</v>
       </c>
       <c r="G10" t="n">
         <v>3.11</v>
       </c>
-      <c r="H10" t="s">
-        <v>126</v>
+      <c r="H10" t="n">
+        <v>9793971</v>
       </c>
       <c r="I10" t="n">
         <v>3.46</v>
       </c>
-      <c r="J10" t="s">
-        <v>127</v>
+      <c r="J10" t="n">
+        <v>8109776</v>
       </c>
       <c r="K10" t="n">
         <v>2.84</v>
       </c>
-      <c r="L10" t="s">
-        <v>128</v>
+      <c r="L10" t="n">
+        <v>18364708</v>
       </c>
       <c r="M10" t="n">
         <v>6.54</v>
       </c>
-      <c r="N10" t="s">
-        <v>129</v>
+      <c r="N10" t="n">
+        <v>8424316</v>
       </c>
       <c r="O10" t="n">
         <v>2.98</v>
       </c>
-      <c r="P10" t="s">
-        <v>130</v>
+      <c r="P10" t="n">
+        <v>8406652</v>
       </c>
       <c r="Q10" t="n">
         <v>2.87</v>
       </c>
-      <c r="R10" t="s">
-        <v>131</v>
+      <c r="R10" t="n">
+        <v>8261256</v>
       </c>
       <c r="S10" t="n">
         <v>2.85</v>
       </c>
-      <c r="T10" t="s">
-        <v>132</v>
+      <c r="T10" t="n">
+        <v>20038258</v>
       </c>
       <c r="U10" t="n">
         <v>6.68</v>
       </c>
-      <c r="V10" t="s">
-        <v>133</v>
+      <c r="V10" t="n">
+        <v>8507552</v>
       </c>
       <c r="W10" t="n">
         <v>2.87</v>
       </c>
-      <c r="X10" t="s">
-        <v>134</v>
+      <c r="X10" t="n">
+        <v>8935660</v>
       </c>
       <c r="Y10" t="n">
         <v>3.05</v>
       </c>
-      <c r="Z10" t="s">
-        <v>135</v>
+      <c r="Z10" t="n">
+        <v>7252683</v>
       </c>
       <c r="AA10" t="n">
         <v>2.6</v>
       </c>
-      <c r="AB10" t="s">
-        <v>136</v>
+      <c r="AB10" t="n">
+        <v>12042103</v>
       </c>
       <c r="AC10" t="n">
         <v>4.48</v>
       </c>
-      <c r="AD10" t="s">
-        <v>137</v>
+      <c r="AD10" t="n">
+        <v>7159521</v>
       </c>
       <c r="AE10" t="n">
         <v>2.7</v>
       </c>
-      <c r="AF10" t="s">
-        <v>138</v>
+      <c r="AF10" t="n">
+        <v>7960894</v>
       </c>
       <c r="AG10" t="n">
         <v>2.98</v>
@@ -3440,7 +1508,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -3456,8 +1524,8 @@
       <c r="M11" t="s"/>
       <c r="N11" t="s"/>
       <c r="O11" t="s"/>
-      <c r="P11" t="s">
-        <v>50</v>
+      <c r="P11" t="n">
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -3481,92 +1549,92 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
       <c r="D12" t="s"/>
       <c r="E12" t="s"/>
-      <c r="F12" t="s">
-        <v>141</v>
+      <c r="F12" t="n">
+        <v>3311369</v>
       </c>
       <c r="G12" t="n">
         <v>1.22</v>
       </c>
-      <c r="H12" t="s">
-        <v>142</v>
+      <c r="H12" t="n">
+        <v>1361862</v>
       </c>
       <c r="I12" t="n">
         <v>0.48</v>
       </c>
-      <c r="J12" t="s">
-        <v>143</v>
+      <c r="J12" t="n">
+        <v>1391900</v>
       </c>
       <c r="K12" t="n">
         <v>0.49</v>
       </c>
-      <c r="L12" t="s">
-        <v>144</v>
+      <c r="L12" t="n">
+        <v>1307374</v>
       </c>
       <c r="M12" t="n">
         <v>0.47</v>
       </c>
-      <c r="N12" t="s">
-        <v>145</v>
+      <c r="N12" t="n">
+        <v>1263365</v>
       </c>
       <c r="O12" t="n">
         <v>0.45</v>
       </c>
-      <c r="P12" t="s">
-        <v>146</v>
+      <c r="P12" t="n">
+        <v>960774</v>
       </c>
       <c r="Q12" t="n">
         <v>0.33</v>
       </c>
-      <c r="R12" t="s">
-        <v>147</v>
+      <c r="R12" t="n">
+        <v>714044</v>
       </c>
       <c r="S12" t="n">
         <v>0.25</v>
       </c>
-      <c r="T12" t="s">
-        <v>148</v>
+      <c r="T12" t="n">
+        <v>794571</v>
       </c>
       <c r="U12" t="n">
         <v>0.26</v>
       </c>
-      <c r="V12" t="s">
-        <v>149</v>
+      <c r="V12" t="n">
+        <v>638128</v>
       </c>
       <c r="W12" t="n">
         <v>0.22</v>
       </c>
-      <c r="X12" t="s">
-        <v>150</v>
+      <c r="X12" t="n">
+        <v>663601</v>
       </c>
       <c r="Y12" t="n">
         <v>0.23</v>
       </c>
-      <c r="Z12" t="s">
-        <v>151</v>
+      <c r="Z12" t="n">
+        <v>533966</v>
       </c>
       <c r="AA12" t="n">
         <v>0.19</v>
       </c>
-      <c r="AB12" t="s">
-        <v>152</v>
+      <c r="AB12" t="n">
+        <v>567812</v>
       </c>
       <c r="AC12" t="n">
         <v>0.21</v>
       </c>
-      <c r="AD12" t="s">
-        <v>153</v>
+      <c r="AD12" t="n">
+        <v>604825</v>
       </c>
       <c r="AE12" t="n">
         <v>0.23</v>
       </c>
-      <c r="AF12" t="s">
-        <v>154</v>
+      <c r="AF12" t="n">
+        <v>770838</v>
       </c>
       <c r="AG12" t="n">
         <v>0.29</v>
@@ -3574,100 +1642,100 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" t="s">
-        <v>156</v>
+        <v>43</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1820536</v>
       </c>
       <c r="C13" t="n">
         <v>0.67</v>
       </c>
-      <c r="D13" t="s">
-        <v>157</v>
+      <c r="D13" t="n">
+        <v>1221314</v>
       </c>
       <c r="E13" t="n">
         <v>0.45</v>
       </c>
-      <c r="F13" t="s">
-        <v>158</v>
+      <c r="F13" t="n">
+        <v>980262</v>
       </c>
       <c r="G13" t="n">
         <v>0.36</v>
       </c>
-      <c r="H13" t="s">
-        <v>159</v>
+      <c r="H13" t="n">
+        <v>421572</v>
       </c>
       <c r="I13" t="n">
         <v>0.15</v>
       </c>
-      <c r="J13" t="s">
-        <v>160</v>
+      <c r="J13" t="n">
+        <v>811663</v>
       </c>
       <c r="K13" t="n">
         <v>0.28</v>
       </c>
-      <c r="L13" t="s">
-        <v>161</v>
+      <c r="L13" t="n">
+        <v>740377</v>
       </c>
       <c r="M13" t="n">
         <v>0.26</v>
       </c>
-      <c r="N13" t="s">
-        <v>162</v>
+      <c r="N13" t="n">
+        <v>487196</v>
       </c>
       <c r="O13" t="n">
         <v>0.17</v>
       </c>
-      <c r="P13" t="s">
-        <v>163</v>
+      <c r="P13" t="n">
+        <v>3151864</v>
       </c>
       <c r="Q13" t="n">
         <v>1.08</v>
       </c>
-      <c r="R13" t="s">
-        <v>164</v>
+      <c r="R13" t="n">
+        <v>2446284</v>
       </c>
       <c r="S13" t="n">
         <v>0.84</v>
       </c>
-      <c r="T13" t="s">
-        <v>165</v>
+      <c r="T13" t="n">
+        <v>1942974</v>
       </c>
       <c r="U13" t="n">
         <v>0.65</v>
       </c>
-      <c r="V13" t="s">
-        <v>166</v>
+      <c r="V13" t="n">
+        <v>732245</v>
       </c>
       <c r="W13" t="n">
         <v>0.25</v>
       </c>
-      <c r="X13" t="s">
-        <v>167</v>
+      <c r="X13" t="n">
+        <v>668842</v>
       </c>
       <c r="Y13" t="n">
         <v>0.23</v>
       </c>
-      <c r="Z13" t="s">
-        <v>168</v>
+      <c r="Z13" t="n">
+        <v>638479</v>
       </c>
       <c r="AA13" t="n">
         <v>0.23</v>
       </c>
-      <c r="AB13" t="s">
-        <v>169</v>
+      <c r="AB13" t="n">
+        <v>880811</v>
       </c>
       <c r="AC13" t="n">
         <v>0.33</v>
       </c>
-      <c r="AD13" t="s">
-        <v>170</v>
+      <c r="AD13" t="n">
+        <v>567371</v>
       </c>
       <c r="AE13" t="n">
         <v>0.21</v>
       </c>
-      <c r="AF13" t="s">
-        <v>171</v>
+      <c r="AF13" t="n">
+        <v>181997</v>
       </c>
       <c r="AG13" t="n">
         <v>0.07000000000000001</v>
@@ -3675,100 +1743,100 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" t="s">
-        <v>173</v>
+        <v>44</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13214330</v>
       </c>
       <c r="C14" t="n">
         <v>4.84</v>
       </c>
-      <c r="D14" t="s">
-        <v>174</v>
+      <c r="D14" t="n">
+        <v>11577183</v>
       </c>
       <c r="E14" t="n">
         <v>4.23</v>
       </c>
-      <c r="F14" t="s">
-        <v>175</v>
+      <c r="F14" t="n">
+        <v>13008590</v>
       </c>
       <c r="G14" t="n">
         <v>4.78</v>
       </c>
-      <c r="H14" t="s">
-        <v>176</v>
+      <c r="H14" t="n">
+        <v>16697377</v>
       </c>
       <c r="I14" t="n">
         <v>5.91</v>
       </c>
-      <c r="J14" t="s">
-        <v>177</v>
+      <c r="J14" t="n">
+        <v>18879413</v>
       </c>
       <c r="K14" t="n">
         <v>6.61</v>
       </c>
-      <c r="L14" t="s">
-        <v>178</v>
+      <c r="L14" t="n">
+        <v>14928773</v>
       </c>
       <c r="M14" t="n">
         <v>5.32</v>
       </c>
-      <c r="N14" t="s">
-        <v>179</v>
+      <c r="N14" t="n">
+        <v>15333991</v>
       </c>
       <c r="O14" t="n">
         <v>5.43</v>
       </c>
-      <c r="P14" t="s">
-        <v>180</v>
+      <c r="P14" t="n">
+        <v>19281356</v>
       </c>
       <c r="Q14" t="n">
         <v>6.59</v>
       </c>
-      <c r="R14" t="s">
-        <v>181</v>
+      <c r="R14" t="n">
+        <v>18821699</v>
       </c>
       <c r="S14" t="n">
         <v>6.5</v>
       </c>
-      <c r="T14" t="s">
-        <v>182</v>
+      <c r="T14" t="n">
+        <v>17090614</v>
       </c>
       <c r="U14" t="n">
         <v>5.7</v>
       </c>
-      <c r="V14" t="s">
-        <v>183</v>
+      <c r="V14" t="n">
+        <v>15886581</v>
       </c>
       <c r="W14" t="n">
         <v>5.35</v>
       </c>
-      <c r="X14" t="s">
-        <v>184</v>
+      <c r="X14" t="n">
+        <v>13238554</v>
       </c>
       <c r="Y14" t="n">
         <v>4.52</v>
       </c>
-      <c r="Z14" t="s">
-        <v>185</v>
+      <c r="Z14" t="n">
+        <v>12684034</v>
       </c>
       <c r="AA14" t="n">
         <v>4.55</v>
       </c>
-      <c r="AB14" t="s">
-        <v>186</v>
+      <c r="AB14" t="n">
+        <v>10215827</v>
       </c>
       <c r="AC14" t="n">
         <v>3.8</v>
       </c>
-      <c r="AD14" t="s">
-        <v>187</v>
+      <c r="AD14" t="n">
+        <v>9511612</v>
       </c>
       <c r="AE14" t="n">
         <v>3.59</v>
       </c>
-      <c r="AF14" t="s">
-        <v>188</v>
+      <c r="AF14" t="n">
+        <v>8974606</v>
       </c>
       <c r="AG14" t="n">
         <v>3.36</v>
@@ -3776,100 +1844,100 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" t="s">
-        <v>190</v>
+        <v>45</v>
+      </c>
+      <c r="B15" t="n">
+        <v>23479332</v>
       </c>
       <c r="C15" t="n">
         <v>8.609999999999999</v>
       </c>
-      <c r="D15" t="s">
-        <v>191</v>
+      <c r="D15" t="n">
+        <v>22337697</v>
       </c>
       <c r="E15" t="n">
         <v>8.16</v>
       </c>
-      <c r="F15" t="s">
-        <v>192</v>
+      <c r="F15" t="n">
+        <v>24963763</v>
       </c>
       <c r="G15" t="n">
         <v>9.18</v>
       </c>
-      <c r="H15" t="s">
-        <v>193</v>
+      <c r="H15" t="n">
+        <v>26652090</v>
       </c>
       <c r="I15" t="n">
         <v>9.43</v>
       </c>
-      <c r="J15" t="s">
-        <v>194</v>
+      <c r="J15" t="n">
+        <v>25120235</v>
       </c>
       <c r="K15" t="n">
         <v>8.789999999999999</v>
       </c>
-      <c r="L15" t="s">
-        <v>195</v>
+      <c r="L15" t="n">
+        <v>28272656</v>
       </c>
       <c r="M15" t="n">
         <v>10.08</v>
       </c>
-      <c r="N15" t="s">
-        <v>196</v>
+      <c r="N15" t="n">
+        <v>26003811</v>
       </c>
       <c r="O15" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="P15" t="s">
-        <v>197</v>
+      <c r="P15" t="n">
+        <v>21385556</v>
       </c>
       <c r="Q15" t="n">
         <v>7.31</v>
       </c>
-      <c r="R15" t="s">
-        <v>198</v>
+      <c r="R15" t="n">
+        <v>20316362</v>
       </c>
       <c r="S15" t="n">
         <v>7.01</v>
       </c>
-      <c r="T15" t="s">
-        <v>199</v>
+      <c r="T15" t="n">
+        <v>19766007</v>
       </c>
       <c r="U15" t="n">
         <v>6.59</v>
       </c>
-      <c r="V15" t="s">
-        <v>200</v>
+      <c r="V15" t="n">
+        <v>18744824</v>
       </c>
       <c r="W15" t="n">
         <v>6.32</v>
       </c>
-      <c r="X15" t="s">
-        <v>201</v>
+      <c r="X15" t="n">
+        <v>22367308</v>
       </c>
       <c r="Y15" t="n">
         <v>7.63</v>
       </c>
-      <c r="Z15" t="s">
-        <v>202</v>
+      <c r="Z15" t="n">
+        <v>22129331</v>
       </c>
       <c r="AA15" t="n">
         <v>7.94</v>
       </c>
-      <c r="AB15" t="s">
-        <v>203</v>
+      <c r="AB15" t="n">
+        <v>17531702</v>
       </c>
       <c r="AC15" t="n">
         <v>6.52</v>
       </c>
-      <c r="AD15" t="s">
-        <v>204</v>
+      <c r="AD15" t="n">
+        <v>18373500</v>
       </c>
       <c r="AE15" t="n">
         <v>6.93</v>
       </c>
-      <c r="AF15" t="s">
-        <v>205</v>
+      <c r="AF15" t="n">
+        <v>11591214</v>
       </c>
       <c r="AG15" t="n">
         <v>4.34</v>
@@ -3877,100 +1945,100 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B16" t="s">
-        <v>207</v>
+        <v>46</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7731607</v>
       </c>
       <c r="C16" t="n">
         <v>2.83</v>
       </c>
-      <c r="D16" t="s">
-        <v>208</v>
+      <c r="D16" t="n">
+        <v>7113340</v>
       </c>
       <c r="E16" t="n">
         <v>2.6</v>
       </c>
-      <c r="F16" t="s">
-        <v>209</v>
+      <c r="F16" t="n">
+        <v>2042249</v>
       </c>
       <c r="G16" t="n">
         <v>0.75</v>
       </c>
-      <c r="H16" t="s">
-        <v>210</v>
+      <c r="H16" t="n">
+        <v>1548602</v>
       </c>
       <c r="I16" t="n">
         <v>0.55</v>
       </c>
-      <c r="J16" t="s">
-        <v>211</v>
+      <c r="J16" t="n">
+        <v>956270</v>
       </c>
       <c r="K16" t="n">
         <v>0.33</v>
       </c>
-      <c r="L16" t="s">
-        <v>212</v>
+      <c r="L16" t="n">
+        <v>691978</v>
       </c>
       <c r="M16" t="n">
         <v>0.25</v>
       </c>
-      <c r="N16" t="s">
-        <v>213</v>
+      <c r="N16" t="n">
+        <v>733709</v>
       </c>
       <c r="O16" t="n">
         <v>0.26</v>
       </c>
-      <c r="P16" t="s">
-        <v>214</v>
+      <c r="P16" t="n">
+        <v>1339313</v>
       </c>
       <c r="Q16" t="n">
         <v>0.46</v>
       </c>
-      <c r="R16" t="s">
-        <v>215</v>
+      <c r="R16" t="n">
+        <v>2186810</v>
       </c>
       <c r="S16" t="n">
         <v>0.75</v>
       </c>
-      <c r="T16" t="s">
-        <v>216</v>
+      <c r="T16" t="n">
+        <v>3923284</v>
       </c>
       <c r="U16" t="n">
         <v>1.31</v>
       </c>
-      <c r="V16" t="s">
-        <v>217</v>
+      <c r="V16" t="n">
+        <v>4139885</v>
       </c>
       <c r="W16" t="n">
         <v>1.4</v>
       </c>
-      <c r="X16" t="s">
-        <v>218</v>
+      <c r="X16" t="n">
+        <v>2468325</v>
       </c>
       <c r="Y16" t="n">
         <v>0.84</v>
       </c>
-      <c r="Z16" t="s">
-        <v>219</v>
+      <c r="Z16" t="n">
+        <v>3217451</v>
       </c>
       <c r="AA16" t="n">
         <v>1.15</v>
       </c>
-      <c r="AB16" t="s">
-        <v>220</v>
+      <c r="AB16" t="n">
+        <v>2568821</v>
       </c>
       <c r="AC16" t="n">
         <v>0.96</v>
       </c>
-      <c r="AD16" t="s">
-        <v>221</v>
+      <c r="AD16" t="n">
+        <v>1505503</v>
       </c>
       <c r="AE16" t="n">
         <v>0.57</v>
       </c>
-      <c r="AF16" t="s">
-        <v>222</v>
+      <c r="AF16" t="n">
+        <v>1287340</v>
       </c>
       <c r="AG16" t="n">
         <v>0.48</v>
@@ -3978,100 +2046,100 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B17" t="s">
-        <v>224</v>
+        <v>47</v>
+      </c>
+      <c r="B17" t="n">
+        <v>898847</v>
       </c>
       <c r="C17" t="n">
         <v>0.33</v>
       </c>
-      <c r="D17" t="s">
-        <v>225</v>
+      <c r="D17" t="n">
+        <v>1771698</v>
       </c>
       <c r="E17" t="n">
         <v>0.65</v>
       </c>
-      <c r="F17" t="s">
-        <v>226</v>
+      <c r="F17" t="n">
+        <v>1596705</v>
       </c>
       <c r="G17" t="n">
         <v>0.59</v>
       </c>
-      <c r="H17" t="s">
-        <v>227</v>
+      <c r="H17" t="n">
+        <v>1641695</v>
       </c>
       <c r="I17" t="n">
         <v>0.58</v>
       </c>
-      <c r="J17" t="s">
-        <v>228</v>
+      <c r="J17" t="n">
+        <v>1623847</v>
       </c>
       <c r="K17" t="n">
         <v>0.57</v>
       </c>
-      <c r="L17" t="s">
-        <v>229</v>
+      <c r="L17" t="n">
+        <v>603956</v>
       </c>
       <c r="M17" t="n">
         <v>0.22</v>
       </c>
-      <c r="N17" t="s">
-        <v>230</v>
+      <c r="N17" t="n">
+        <v>1651592</v>
       </c>
       <c r="O17" t="n">
         <v>0.58</v>
       </c>
-      <c r="P17" t="s">
-        <v>231</v>
+      <c r="P17" t="n">
+        <v>1557981</v>
       </c>
       <c r="Q17" t="n">
         <v>0.53</v>
       </c>
-      <c r="R17" t="s">
-        <v>232</v>
+      <c r="R17" t="n">
+        <v>1479314</v>
       </c>
       <c r="S17" t="n">
         <v>0.51</v>
       </c>
-      <c r="T17" t="s">
-        <v>233</v>
+      <c r="T17" t="n">
+        <v>1388031</v>
       </c>
       <c r="U17" t="n">
         <v>0.46</v>
       </c>
-      <c r="V17" t="s">
-        <v>234</v>
+      <c r="V17" t="n">
+        <v>1303434</v>
       </c>
       <c r="W17" t="n">
         <v>0.44</v>
       </c>
-      <c r="X17" t="s">
-        <v>235</v>
+      <c r="X17" t="n">
+        <v>1243517</v>
       </c>
       <c r="Y17" t="n">
         <v>0.42</v>
       </c>
-      <c r="Z17" t="s">
-        <v>236</v>
+      <c r="Z17" t="n">
+        <v>1188320</v>
       </c>
       <c r="AA17" t="n">
         <v>0.43</v>
       </c>
-      <c r="AB17" t="s">
-        <v>237</v>
+      <c r="AB17" t="n">
+        <v>1077120</v>
       </c>
       <c r="AC17" t="n">
         <v>0.4</v>
       </c>
-      <c r="AD17" t="s">
-        <v>238</v>
+      <c r="AD17" t="n">
+        <v>1005814</v>
       </c>
       <c r="AE17" t="n">
         <v>0.38</v>
       </c>
-      <c r="AF17" t="s">
-        <v>239</v>
+      <c r="AF17" t="n">
+        <v>931080</v>
       </c>
       <c r="AG17" t="n">
         <v>0.35</v>
@@ -4079,100 +2147,100 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B18" t="s">
-        <v>241</v>
+        <v>48</v>
+      </c>
+      <c r="B18" t="n">
+        <v>46498280</v>
       </c>
       <c r="C18" t="n">
         <v>17.04</v>
       </c>
-      <c r="D18" t="s">
-        <v>242</v>
+      <c r="D18" t="n">
+        <v>47103259</v>
       </c>
       <c r="E18" t="n">
         <v>17.21</v>
       </c>
-      <c r="F18" t="s">
-        <v>243</v>
+      <c r="F18" t="n">
+        <v>46447372</v>
       </c>
       <c r="G18" t="n">
         <v>17.08</v>
       </c>
-      <c r="H18" t="s">
-        <v>244</v>
+      <c r="H18" t="n">
+        <v>46823024</v>
       </c>
       <c r="I18" t="n">
         <v>16.56</v>
       </c>
-      <c r="J18" t="s">
-        <v>245</v>
+      <c r="J18" t="n">
+        <v>46738273</v>
       </c>
       <c r="K18" t="n">
         <v>16.36</v>
       </c>
-      <c r="L18" t="s">
-        <v>246</v>
+      <c r="L18" t="n">
+        <v>46600886</v>
       </c>
       <c r="M18" t="n">
         <v>16.61</v>
       </c>
-      <c r="N18" t="s">
-        <v>247</v>
+      <c r="N18" t="n">
+        <v>46863692</v>
       </c>
       <c r="O18" t="n">
         <v>16.58</v>
       </c>
-      <c r="P18" t="s">
-        <v>248</v>
+      <c r="P18" t="n">
+        <v>48888621</v>
       </c>
       <c r="Q18" t="n">
         <v>16.7</v>
       </c>
-      <c r="R18" t="s">
-        <v>249</v>
+      <c r="R18" t="n">
+        <v>47339308</v>
       </c>
       <c r="S18" t="n">
         <v>16.34</v>
       </c>
-      <c r="T18" t="s">
-        <v>250</v>
+      <c r="T18" t="n">
+        <v>46966168</v>
       </c>
       <c r="U18" t="n">
         <v>15.66</v>
       </c>
-      <c r="V18" t="s">
-        <v>251</v>
+      <c r="V18" t="n">
+        <v>47471806</v>
       </c>
       <c r="W18" t="n">
         <v>16</v>
       </c>
-      <c r="X18" t="s">
-        <v>252</v>
+      <c r="X18" t="n">
+        <v>47732348</v>
       </c>
       <c r="Y18" t="n">
         <v>16.29</v>
       </c>
-      <c r="Z18" t="s">
-        <v>253</v>
+      <c r="Z18" t="n">
+        <v>48151134</v>
       </c>
       <c r="AA18" t="n">
         <v>17.27</v>
       </c>
-      <c r="AB18" t="s">
-        <v>254</v>
+      <c r="AB18" t="n">
+        <v>47534343</v>
       </c>
       <c r="AC18" t="n">
         <v>17.69</v>
       </c>
-      <c r="AD18" t="s">
-        <v>255</v>
+      <c r="AD18" t="n">
+        <v>46825788</v>
       </c>
       <c r="AE18" t="n">
         <v>17.66</v>
       </c>
-      <c r="AF18" t="s">
-        <v>256</v>
+      <c r="AF18" t="n">
+        <v>47831042</v>
       </c>
       <c r="AG18" t="n">
         <v>17.92</v>
@@ -4180,10 +2248,10 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B19" t="s">
-        <v>258</v>
+        <v>49</v>
+      </c>
+      <c r="B19" t="n">
+        <v>317996</v>
       </c>
       <c r="C19" t="n">
         <v>0.12</v>
@@ -4221,100 +2289,100 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" t="s">
-        <v>260</v>
+        <v>50</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10148150</v>
       </c>
       <c r="C20" t="n">
         <v>3.72</v>
       </c>
-      <c r="D20" t="s">
-        <v>261</v>
+      <c r="D20" t="n">
+        <v>10076004</v>
       </c>
       <c r="E20" t="n">
         <v>3.68</v>
       </c>
-      <c r="F20" t="s">
-        <v>262</v>
+      <c r="F20" t="n">
+        <v>9662029</v>
       </c>
       <c r="G20" t="n">
         <v>3.55</v>
       </c>
-      <c r="H20" t="s">
-        <v>263</v>
+      <c r="H20" t="n">
+        <v>9286227</v>
       </c>
       <c r="I20" t="n">
         <v>3.29</v>
       </c>
-      <c r="J20" t="s">
-        <v>264</v>
+      <c r="J20" t="n">
+        <v>10658127</v>
       </c>
       <c r="K20" t="n">
         <v>3.73</v>
       </c>
-      <c r="L20" t="s">
-        <v>265</v>
+      <c r="L20" t="n">
+        <v>10115835</v>
       </c>
       <c r="M20" t="n">
         <v>3.6</v>
       </c>
-      <c r="N20" t="s">
-        <v>266</v>
+      <c r="N20" t="n">
+        <v>10197101</v>
       </c>
       <c r="O20" t="n">
         <v>3.61</v>
       </c>
-      <c r="P20" t="s">
-        <v>267</v>
+      <c r="P20" t="n">
+        <v>10470879</v>
       </c>
       <c r="Q20" t="n">
         <v>3.58</v>
       </c>
-      <c r="R20" t="s">
-        <v>268</v>
+      <c r="R20" t="n">
+        <v>9976103</v>
       </c>
       <c r="S20" t="n">
         <v>3.44</v>
       </c>
-      <c r="T20" t="s">
-        <v>269</v>
+      <c r="T20" t="n">
+        <v>9795623</v>
       </c>
       <c r="U20" t="n">
         <v>3.27</v>
       </c>
-      <c r="V20" t="s">
-        <v>270</v>
+      <c r="V20" t="n">
+        <v>9248095</v>
       </c>
       <c r="W20" t="n">
         <v>3.12</v>
       </c>
-      <c r="X20" t="s">
-        <v>271</v>
+      <c r="X20" t="n">
+        <v>8941127</v>
       </c>
       <c r="Y20" t="n">
         <v>3.05</v>
       </c>
-      <c r="Z20" t="s">
-        <v>272</v>
+      <c r="Z20" t="n">
+        <v>8485209</v>
       </c>
       <c r="AA20" t="n">
         <v>3.04</v>
       </c>
-      <c r="AB20" t="s">
-        <v>273</v>
+      <c r="AB20" t="n">
+        <v>8314191</v>
       </c>
       <c r="AC20" t="n">
         <v>3.09</v>
       </c>
-      <c r="AD20" t="s">
-        <v>274</v>
+      <c r="AD20" t="n">
+        <v>8221800</v>
       </c>
       <c r="AE20" t="n">
         <v>3.1</v>
       </c>
-      <c r="AF20" t="s">
-        <v>275</v>
+      <c r="AF20" t="n">
+        <v>8893965</v>
       </c>
       <c r="AG20" t="n">
         <v>3.33</v>
@@ -4322,7 +2390,7 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -4338,8 +2406,8 @@
       <c r="M21" t="s"/>
       <c r="N21" t="s"/>
       <c r="O21" t="s"/>
-      <c r="P21" t="s">
-        <v>50</v>
+      <c r="P21" t="n">
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -4363,7 +2431,7 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>277</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -4373,20 +2441,20 @@
       <c r="G22" t="s"/>
       <c r="H22" t="s"/>
       <c r="I22" t="s"/>
-      <c r="J22" t="s">
-        <v>50</v>
+      <c r="J22" t="n">
+        <v>0</v>
       </c>
       <c r="K22" t="s"/>
-      <c r="L22" t="s">
-        <v>50</v>
+      <c r="L22" t="n">
+        <v>0</v>
       </c>
       <c r="M22" t="s"/>
-      <c r="N22" t="s">
-        <v>50</v>
+      <c r="N22" t="n">
+        <v>0</v>
       </c>
       <c r="O22" t="s"/>
-      <c r="P22" t="s">
-        <v>50</v>
+      <c r="P22" t="n">
+        <v>0</v>
       </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
@@ -4408,52 +2476,52 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B23" t="s">
-        <v>279</v>
+        <v>53</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3500000</v>
       </c>
       <c r="C23" t="n">
         <v>1.28</v>
       </c>
-      <c r="D23" t="s">
-        <v>279</v>
+      <c r="D23" t="n">
+        <v>3500000</v>
       </c>
       <c r="E23" t="n">
         <v>1.28</v>
       </c>
-      <c r="F23" t="s">
-        <v>279</v>
+      <c r="F23" t="n">
+        <v>3500000</v>
       </c>
       <c r="G23" t="n">
         <v>1.29</v>
       </c>
-      <c r="H23" t="s">
-        <v>50</v>
+      <c r="H23" t="n">
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="s">
-        <v>50</v>
+      <c r="J23" t="n">
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
-      <c r="L23" t="s">
-        <v>50</v>
+      <c r="L23" t="n">
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
-      <c r="N23" t="s">
-        <v>50</v>
+      <c r="N23" t="n">
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="P23" t="s">
-        <v>50</v>
+      <c r="P23" t="n">
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -4477,100 +2545,100 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B24" t="s">
-        <v>281</v>
+        <v>54</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8856139</v>
       </c>
       <c r="C24" t="n">
         <v>3.25</v>
       </c>
-      <c r="D24" t="s">
-        <v>282</v>
+      <c r="D24" t="n">
+        <v>9747833</v>
       </c>
       <c r="E24" t="n">
         <v>3.56</v>
       </c>
-      <c r="F24" t="s">
-        <v>283</v>
+      <c r="F24" t="n">
+        <v>8228020</v>
       </c>
       <c r="G24" t="n">
         <v>3.03</v>
       </c>
-      <c r="H24" t="s">
-        <v>284</v>
+      <c r="H24" t="n">
+        <v>8245257</v>
       </c>
       <c r="I24" t="n">
         <v>2.92</v>
       </c>
-      <c r="J24" t="s">
-        <v>285</v>
+      <c r="J24" t="n">
+        <v>9623722</v>
       </c>
       <c r="K24" t="n">
         <v>3.37</v>
       </c>
-      <c r="L24" t="s">
-        <v>286</v>
+      <c r="L24" t="n">
+        <v>8629940</v>
       </c>
       <c r="M24" t="n">
         <v>3.08</v>
       </c>
-      <c r="N24" t="s">
-        <v>287</v>
+      <c r="N24" t="n">
+        <v>8490289</v>
       </c>
       <c r="O24" t="n">
         <v>3</v>
       </c>
-      <c r="P24" t="s">
-        <v>288</v>
+      <c r="P24" t="n">
+        <v>7056837</v>
       </c>
       <c r="Q24" t="n">
         <v>2.41</v>
       </c>
-      <c r="R24" t="s">
-        <v>289</v>
+      <c r="R24" t="n">
+        <v>6739703</v>
       </c>
       <c r="S24" t="n">
         <v>2.33</v>
       </c>
-      <c r="T24" t="s">
-        <v>290</v>
+      <c r="T24" t="n">
+        <v>8643687</v>
       </c>
       <c r="U24" t="n">
         <v>2.88</v>
       </c>
-      <c r="V24" t="s">
-        <v>291</v>
+      <c r="V24" t="n">
+        <v>6892421</v>
       </c>
       <c r="W24" t="n">
         <v>2.32</v>
       </c>
-      <c r="X24" t="s">
-        <v>292</v>
+      <c r="X24" t="n">
+        <v>6943854</v>
       </c>
       <c r="Y24" t="n">
         <v>2.37</v>
       </c>
-      <c r="Z24" t="s">
-        <v>293</v>
+      <c r="Z24" t="n">
+        <v>5982644</v>
       </c>
       <c r="AA24" t="n">
         <v>2.15</v>
       </c>
-      <c r="AB24" t="s">
-        <v>294</v>
+      <c r="AB24" t="n">
+        <v>6804530</v>
       </c>
       <c r="AC24" t="n">
         <v>2.53</v>
       </c>
-      <c r="AD24" t="s">
-        <v>295</v>
+      <c r="AD24" t="n">
+        <v>6650515</v>
       </c>
       <c r="AE24" t="n">
         <v>2.51</v>
       </c>
-      <c r="AF24" t="s">
-        <v>296</v>
+      <c r="AF24" t="n">
+        <v>7671640</v>
       </c>
       <c r="AG24" t="n">
         <v>2.87</v>
@@ -4578,76 +2646,76 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B25" t="s">
-        <v>298</v>
+        <v>55</v>
+      </c>
+      <c r="B25" t="n">
+        <v>205583</v>
       </c>
       <c r="C25" t="n">
         <v>0.08</v>
       </c>
-      <c r="D25" t="s">
-        <v>299</v>
+      <c r="D25" t="n">
+        <v>205078</v>
       </c>
       <c r="E25" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F25" t="s">
-        <v>300</v>
+      <c r="F25" t="n">
+        <v>146676</v>
       </c>
       <c r="G25" t="n">
         <v>0.05</v>
       </c>
-      <c r="H25" t="s">
-        <v>301</v>
+      <c r="H25" t="n">
+        <v>183052</v>
       </c>
       <c r="I25" t="n">
         <v>0.06</v>
       </c>
-      <c r="J25" t="s">
-        <v>302</v>
+      <c r="J25" t="n">
+        <v>150645</v>
       </c>
       <c r="K25" t="n">
         <v>0.05</v>
       </c>
-      <c r="L25" t="s">
-        <v>303</v>
+      <c r="L25" t="n">
+        <v>182335</v>
       </c>
       <c r="M25" t="n">
         <v>0.06</v>
       </c>
-      <c r="N25" t="s">
-        <v>304</v>
+      <c r="N25" t="n">
+        <v>178463</v>
       </c>
       <c r="O25" t="n">
         <v>0.06</v>
       </c>
-      <c r="P25" t="s">
-        <v>305</v>
+      <c r="P25" t="n">
+        <v>210945</v>
       </c>
       <c r="Q25" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="R25" t="s">
-        <v>306</v>
+      <c r="R25" t="n">
+        <v>187878</v>
       </c>
       <c r="S25" t="n">
         <v>0.06</v>
       </c>
-      <c r="T25" t="s">
-        <v>307</v>
+      <c r="T25" t="n">
+        <v>166974</v>
       </c>
       <c r="U25" t="n">
         <v>0.06</v>
       </c>
-      <c r="V25" t="s">
-        <v>308</v>
+      <c r="V25" t="n">
+        <v>129035</v>
       </c>
       <c r="W25" t="n">
         <v>0.04</v>
       </c>
-      <c r="X25" t="s">
-        <v>309</v>
+      <c r="X25" t="n">
+        <v>137199</v>
       </c>
       <c r="Y25" t="n">
         <v>0.05</v>
@@ -4663,7 +2731,7 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
-        <v>310</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s"/>
       <c r="C26" t="s"/>
@@ -4679,8 +2747,8 @@
       <c r="M26" t="s"/>
       <c r="N26" t="s"/>
       <c r="O26" t="s"/>
-      <c r="P26" t="s">
-        <v>50</v>
+      <c r="P26" t="n">
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -4704,7 +2772,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
-        <v>311</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s"/>
@@ -4720,8 +2788,8 @@
       <c r="M27" t="s"/>
       <c r="N27" t="s"/>
       <c r="O27" t="s"/>
-      <c r="P27" t="s">
-        <v>50</v>
+      <c r="P27" t="n">
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -4745,100 +2813,100 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B28" t="s">
-        <v>313</v>
+        <v>58</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4129331</v>
       </c>
       <c r="C28" t="n">
         <v>1.51</v>
       </c>
-      <c r="D28" t="s">
-        <v>314</v>
+      <c r="D28" t="n">
+        <v>3848811</v>
       </c>
       <c r="E28" t="n">
         <v>1.41</v>
       </c>
-      <c r="F28" t="s">
-        <v>315</v>
+      <c r="F28" t="n">
+        <v>5653573</v>
       </c>
       <c r="G28" t="n">
         <v>2.08</v>
       </c>
-      <c r="H28" t="s">
-        <v>316</v>
+      <c r="H28" t="n">
+        <v>5102283</v>
       </c>
       <c r="I28" t="n">
         <v>1.8</v>
       </c>
-      <c r="J28" t="s">
-        <v>317</v>
+      <c r="J28" t="n">
+        <v>5247145</v>
       </c>
       <c r="K28" t="n">
         <v>1.84</v>
       </c>
-      <c r="L28" t="s">
-        <v>318</v>
+      <c r="L28" t="n">
+        <v>5341062</v>
       </c>
       <c r="M28" t="n">
         <v>1.9</v>
       </c>
-      <c r="N28" t="s">
-        <v>319</v>
+      <c r="N28" t="n">
+        <v>6924607</v>
       </c>
       <c r="O28" t="n">
         <v>2.45</v>
       </c>
-      <c r="P28" t="s">
-        <v>320</v>
+      <c r="P28" t="n">
+        <v>6370508</v>
       </c>
       <c r="Q28" t="n">
         <v>2.18</v>
       </c>
-      <c r="R28" t="s">
-        <v>321</v>
+      <c r="R28" t="n">
+        <v>6124655</v>
       </c>
       <c r="S28" t="n">
         <v>2.11</v>
       </c>
-      <c r="T28" t="s">
-        <v>322</v>
+      <c r="T28" t="n">
+        <v>5643553</v>
       </c>
       <c r="U28" t="n">
         <v>1.88</v>
       </c>
-      <c r="V28" t="s">
-        <v>323</v>
+      <c r="V28" t="n">
+        <v>6131288</v>
       </c>
       <c r="W28" t="n">
         <v>2.07</v>
       </c>
-      <c r="X28" t="s">
-        <v>324</v>
+      <c r="X28" t="n">
+        <v>6159780</v>
       </c>
       <c r="Y28" t="n">
         <v>2.1</v>
       </c>
-      <c r="Z28" t="s">
-        <v>325</v>
+      <c r="Z28" t="n">
+        <v>7908199</v>
       </c>
       <c r="AA28" t="n">
         <v>2.84</v>
       </c>
-      <c r="AB28" t="s">
-        <v>326</v>
+      <c r="AB28" t="n">
+        <v>5851897</v>
       </c>
       <c r="AC28" t="n">
         <v>2.18</v>
       </c>
-      <c r="AD28" t="s">
-        <v>327</v>
+      <c r="AD28" t="n">
+        <v>7678660</v>
       </c>
       <c r="AE28" t="n">
         <v>2.9</v>
       </c>
-      <c r="AF28" t="s">
-        <v>328</v>
+      <c r="AF28" t="n">
+        <v>5921518</v>
       </c>
       <c r="AG28" t="n">
         <v>2.22</v>
@@ -4846,7 +2914,7 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="1" t="s">
-        <v>329</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="s"/>
@@ -4862,8 +2930,8 @@
       <c r="M29" t="s"/>
       <c r="N29" t="s"/>
       <c r="O29" t="s"/>
-      <c r="P29" t="s">
-        <v>50</v>
+      <c r="P29" t="n">
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -4887,7 +2955,7 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="1" t="s">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s"/>
       <c r="C30" t="s"/>
@@ -4903,8 +2971,8 @@
       <c r="M30" t="s"/>
       <c r="N30" t="s"/>
       <c r="O30" t="s"/>
-      <c r="P30" t="s">
-        <v>50</v>
+      <c r="P30" t="n">
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -4928,100 +2996,100 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B31" t="s">
-        <v>332</v>
+        <v>61</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9489955</v>
       </c>
       <c r="C31" t="n">
         <v>3.48</v>
       </c>
-      <c r="D31" t="s">
-        <v>333</v>
+      <c r="D31" t="n">
+        <v>8966391</v>
       </c>
       <c r="E31" t="n">
         <v>3.28</v>
       </c>
-      <c r="F31" t="s">
-        <v>334</v>
+      <c r="F31" t="n">
+        <v>8254897</v>
       </c>
       <c r="G31" t="n">
         <v>3.03</v>
       </c>
-      <c r="H31" t="s">
-        <v>335</v>
+      <c r="H31" t="n">
+        <v>8681572</v>
       </c>
       <c r="I31" t="n">
         <v>3.07</v>
       </c>
-      <c r="J31" t="s">
-        <v>336</v>
+      <c r="J31" t="n">
+        <v>8049505</v>
       </c>
       <c r="K31" t="n">
         <v>2.82</v>
       </c>
-      <c r="L31" t="s">
-        <v>337</v>
+      <c r="L31" t="n">
+        <v>8671346</v>
       </c>
       <c r="M31" t="n">
         <v>3.09</v>
       </c>
-      <c r="N31" t="s">
-        <v>338</v>
+      <c r="N31" t="n">
+        <v>9278544</v>
       </c>
       <c r="O31" t="n">
         <v>3.28</v>
       </c>
-      <c r="P31" t="s">
-        <v>339</v>
+      <c r="P31" t="n">
+        <v>8376953</v>
       </c>
       <c r="Q31" t="n">
         <v>2.86</v>
       </c>
-      <c r="R31" t="s">
-        <v>340</v>
+      <c r="R31" t="n">
+        <v>7211579</v>
       </c>
       <c r="S31" t="n">
         <v>2.49</v>
       </c>
-      <c r="T31" t="s">
-        <v>341</v>
+      <c r="T31" t="n">
+        <v>7971963</v>
       </c>
       <c r="U31" t="n">
         <v>2.66</v>
       </c>
-      <c r="V31" t="s">
-        <v>342</v>
+      <c r="V31" t="n">
+        <v>6394069</v>
       </c>
       <c r="W31" t="n">
         <v>2.15</v>
       </c>
-      <c r="X31" t="s">
-        <v>343</v>
+      <c r="X31" t="n">
+        <v>6850598</v>
       </c>
       <c r="Y31" t="n">
         <v>2.34</v>
       </c>
-      <c r="Z31" t="s">
-        <v>344</v>
+      <c r="Z31" t="n">
+        <v>5702299</v>
       </c>
       <c r="AA31" t="n">
         <v>2.05</v>
       </c>
-      <c r="AB31" t="s">
-        <v>345</v>
+      <c r="AB31" t="n">
+        <v>6402826</v>
       </c>
       <c r="AC31" t="n">
         <v>2.38</v>
       </c>
-      <c r="AD31" t="s">
-        <v>346</v>
+      <c r="AD31" t="n">
+        <v>6042259</v>
       </c>
       <c r="AE31" t="n">
         <v>2.28</v>
       </c>
-      <c r="AF31" t="s">
-        <v>347</v>
+      <c r="AF31" t="n">
+        <v>6782292</v>
       </c>
       <c r="AG31" t="n">
         <v>2.54</v>
@@ -5029,100 +3097,100 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B32" t="s">
-        <v>349</v>
+        <v>62</v>
+      </c>
+      <c r="B32" t="n">
+        <v>236032</v>
       </c>
       <c r="C32" t="n">
         <v>0.09</v>
       </c>
-      <c r="D32" t="s">
-        <v>350</v>
+      <c r="D32" t="n">
+        <v>291091</v>
       </c>
       <c r="E32" t="n">
         <v>0.11</v>
       </c>
-      <c r="F32" t="s">
-        <v>351</v>
+      <c r="F32" t="n">
+        <v>308257</v>
       </c>
       <c r="G32" t="n">
         <v>0.11</v>
       </c>
-      <c r="H32" t="s">
-        <v>352</v>
+      <c r="H32" t="n">
+        <v>326462</v>
       </c>
       <c r="I32" t="n">
         <v>0.12</v>
       </c>
-      <c r="J32" t="s">
-        <v>353</v>
+      <c r="J32" t="n">
+        <v>284858</v>
       </c>
       <c r="K32" t="n">
         <v>0.1</v>
       </c>
-      <c r="L32" t="s">
-        <v>354</v>
+      <c r="L32" t="n">
+        <v>295172</v>
       </c>
       <c r="M32" t="n">
         <v>0.11</v>
       </c>
-      <c r="N32" t="s">
-        <v>355</v>
+      <c r="N32" t="n">
+        <v>317310</v>
       </c>
       <c r="O32" t="n">
         <v>0.11</v>
       </c>
-      <c r="P32" t="s">
-        <v>356</v>
+      <c r="P32" t="n">
+        <v>319690</v>
       </c>
       <c r="Q32" t="n">
         <v>0.11</v>
       </c>
-      <c r="R32" t="s">
-        <v>357</v>
+      <c r="R32" t="n">
+        <v>675443</v>
       </c>
       <c r="S32" t="n">
         <v>0.23</v>
       </c>
-      <c r="T32" t="s">
-        <v>358</v>
+      <c r="T32" t="n">
+        <v>856627</v>
       </c>
       <c r="U32" t="n">
         <v>0.29</v>
       </c>
-      <c r="V32" t="s">
-        <v>359</v>
+      <c r="V32" t="n">
+        <v>980421</v>
       </c>
       <c r="W32" t="n">
         <v>0.33</v>
       </c>
-      <c r="X32" t="s">
-        <v>360</v>
+      <c r="X32" t="n">
+        <v>985259</v>
       </c>
       <c r="Y32" t="n">
         <v>0.34</v>
       </c>
-      <c r="Z32" t="s">
-        <v>361</v>
+      <c r="Z32" t="n">
+        <v>952686</v>
       </c>
       <c r="AA32" t="n">
         <v>0.34</v>
       </c>
-      <c r="AB32" t="s">
-        <v>362</v>
+      <c r="AB32" t="n">
+        <v>866375</v>
       </c>
       <c r="AC32" t="n">
         <v>0.32</v>
       </c>
-      <c r="AD32" t="s">
-        <v>363</v>
+      <c r="AD32" t="n">
+        <v>769611</v>
       </c>
       <c r="AE32" t="n">
         <v>0.29</v>
       </c>
-      <c r="AF32" t="s">
-        <v>364</v>
+      <c r="AF32" t="n">
+        <v>546984</v>
       </c>
       <c r="AG32" t="n">
         <v>0.2</v>
@@ -5130,100 +3198,100 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B33" t="s">
-        <v>366</v>
+        <v>63</v>
+      </c>
+      <c r="B33" t="n">
+        <v>8919088</v>
       </c>
       <c r="C33" t="n">
         <v>3.27</v>
       </c>
-      <c r="D33" t="s">
-        <v>367</v>
+      <c r="D33" t="n">
+        <v>10870904</v>
       </c>
       <c r="E33" t="n">
         <v>3.97</v>
       </c>
-      <c r="F33" t="s">
-        <v>368</v>
+      <c r="F33" t="n">
+        <v>14562063</v>
       </c>
       <c r="G33" t="n">
         <v>5.35</v>
       </c>
-      <c r="H33" t="s">
-        <v>369</v>
+      <c r="H33" t="n">
+        <v>16589337</v>
       </c>
       <c r="I33" t="n">
         <v>5.87</v>
       </c>
-      <c r="J33" t="s">
-        <v>370</v>
+      <c r="J33" t="n">
+        <v>14400651</v>
       </c>
       <c r="K33" t="n">
         <v>5.04</v>
       </c>
-      <c r="L33" t="s">
-        <v>371</v>
+      <c r="L33" t="n">
+        <v>15920604</v>
       </c>
       <c r="M33" t="n">
         <v>5.67</v>
       </c>
-      <c r="N33" t="s">
-        <v>372</v>
+      <c r="N33" t="n">
+        <v>17602181</v>
       </c>
       <c r="O33" t="n">
         <v>6.23</v>
       </c>
-      <c r="P33" t="s">
-        <v>373</v>
+      <c r="P33" t="n">
+        <v>17846977</v>
       </c>
       <c r="Q33" t="n">
         <v>6.1</v>
       </c>
-      <c r="R33" t="s">
-        <v>374</v>
+      <c r="R33" t="n">
+        <v>13871378</v>
       </c>
       <c r="S33" t="n">
         <v>4.79</v>
       </c>
-      <c r="T33" t="s">
-        <v>375</v>
+      <c r="T33" t="n">
+        <v>12528747</v>
       </c>
       <c r="U33" t="n">
         <v>4.18</v>
       </c>
-      <c r="V33" t="s">
-        <v>376</v>
+      <c r="V33" t="n">
+        <v>12328553</v>
       </c>
       <c r="W33" t="n">
         <v>4.15</v>
       </c>
-      <c r="X33" t="s">
-        <v>377</v>
+      <c r="X33" t="n">
+        <v>12377095</v>
       </c>
       <c r="Y33" t="n">
         <v>4.22</v>
       </c>
-      <c r="Z33" t="s">
-        <v>378</v>
+      <c r="Z33" t="n">
+        <v>8471683</v>
       </c>
       <c r="AA33" t="n">
         <v>3.04</v>
       </c>
-      <c r="AB33" t="s">
-        <v>379</v>
+      <c r="AB33" t="n">
+        <v>9838636</v>
       </c>
       <c r="AC33" t="n">
         <v>3.66</v>
       </c>
-      <c r="AD33" t="s">
-        <v>380</v>
+      <c r="AD33" t="n">
+        <v>10128788</v>
       </c>
       <c r="AE33" t="n">
         <v>3.82</v>
       </c>
-      <c r="AF33" t="s">
-        <v>381</v>
+      <c r="AF33" t="n">
+        <v>12600411</v>
       </c>
       <c r="AG33" t="n">
         <v>4.72</v>
@@ -5231,100 +3299,100 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B34" t="s">
-        <v>383</v>
+        <v>64</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6085160</v>
       </c>
       <c r="C34" t="n">
         <v>2.23</v>
       </c>
-      <c r="D34" t="s">
-        <v>384</v>
+      <c r="D34" t="n">
+        <v>6078397</v>
       </c>
       <c r="E34" t="n">
         <v>2.22</v>
       </c>
-      <c r="F34" t="s">
-        <v>385</v>
+      <c r="F34" t="n">
+        <v>6071537</v>
       </c>
       <c r="G34" t="n">
         <v>2.23</v>
       </c>
-      <c r="H34" t="s">
-        <v>386</v>
+      <c r="H34" t="n">
+        <v>6045488</v>
       </c>
       <c r="I34" t="n">
         <v>2.14</v>
       </c>
-      <c r="J34" t="s">
-        <v>387</v>
+      <c r="J34" t="n">
+        <v>6039485</v>
       </c>
       <c r="K34" t="n">
         <v>2.11</v>
       </c>
-      <c r="L34" t="s">
-        <v>388</v>
+      <c r="L34" t="n">
+        <v>6032636</v>
       </c>
       <c r="M34" t="n">
         <v>2.15</v>
       </c>
-      <c r="N34" t="s">
-        <v>389</v>
+      <c r="N34" t="n">
+        <v>6026963</v>
       </c>
       <c r="O34" t="n">
         <v>2.13</v>
       </c>
-      <c r="P34" t="s">
-        <v>390</v>
+      <c r="P34" t="n">
+        <v>6021296</v>
       </c>
       <c r="Q34" t="n">
         <v>2.06</v>
       </c>
-      <c r="R34" t="s">
-        <v>391</v>
+      <c r="R34" t="n">
+        <v>6014636</v>
       </c>
       <c r="S34" t="n">
         <v>2.08</v>
       </c>
-      <c r="T34" t="s">
-        <v>392</v>
+      <c r="T34" t="n">
+        <v>6007919</v>
       </c>
       <c r="U34" t="n">
         <v>2</v>
       </c>
-      <c r="V34" t="s">
-        <v>393</v>
+      <c r="V34" t="n">
+        <v>6002866</v>
       </c>
       <c r="W34" t="n">
         <v>2.02</v>
       </c>
-      <c r="X34" t="s">
-        <v>394</v>
+      <c r="X34" t="n">
+        <v>5996536</v>
       </c>
       <c r="Y34" t="n">
         <v>2.05</v>
       </c>
-      <c r="Z34" t="s">
-        <v>395</v>
+      <c r="Z34" t="n">
+        <v>5989824</v>
       </c>
       <c r="AA34" t="n">
         <v>2.15</v>
       </c>
-      <c r="AB34" t="s">
-        <v>396</v>
+      <c r="AB34" t="n">
+        <v>5983608</v>
       </c>
       <c r="AC34" t="n">
         <v>2.23</v>
       </c>
-      <c r="AD34" t="s">
-        <v>397</v>
+      <c r="AD34" t="n">
+        <v>5976780</v>
       </c>
       <c r="AE34" t="n">
         <v>2.25</v>
       </c>
-      <c r="AF34" t="s">
-        <v>398</v>
+      <c r="AF34" t="n">
+        <v>6073056</v>
       </c>
       <c r="AG34" t="n">
         <v>2.27</v>
@@ -5332,7 +3400,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="1" t="s">
-        <v>399</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s"/>
       <c r="C35" t="s"/>
@@ -5348,8 +3416,8 @@
       <c r="M35" t="s"/>
       <c r="N35" t="s"/>
       <c r="O35" t="s"/>
-      <c r="P35" t="s">
-        <v>50</v>
+      <c r="P35" t="n">
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -5373,7 +3441,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
-        <v>400</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s"/>
       <c r="C36" t="s"/>
@@ -5389,8 +3457,8 @@
       <c r="M36" t="s"/>
       <c r="N36" t="s"/>
       <c r="O36" t="s"/>
-      <c r="P36" t="s">
-        <v>50</v>
+      <c r="P36" t="n">
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -5414,100 +3482,100 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B37" t="s">
-        <v>402</v>
+        <v>67</v>
+      </c>
+      <c r="B37" t="n">
+        <v>7460075</v>
       </c>
       <c r="C37" t="n">
         <v>2.73</v>
       </c>
-      <c r="D37" t="s">
-        <v>403</v>
+      <c r="D37" t="n">
+        <v>7912439</v>
       </c>
       <c r="E37" t="n">
         <v>2.89</v>
       </c>
-      <c r="F37" t="s">
-        <v>404</v>
+      <c r="F37" t="n">
+        <v>8067842</v>
       </c>
       <c r="G37" t="n">
         <v>2.97</v>
       </c>
-      <c r="H37" t="s">
-        <v>405</v>
+      <c r="H37" t="n">
+        <v>8028252</v>
       </c>
       <c r="I37" t="n">
         <v>2.84</v>
       </c>
-      <c r="J37" t="s">
-        <v>406</v>
+      <c r="J37" t="n">
+        <v>7914971</v>
       </c>
       <c r="K37" t="n">
         <v>2.77</v>
       </c>
-      <c r="L37" t="s">
-        <v>407</v>
+      <c r="L37" t="n">
+        <v>7845242</v>
       </c>
       <c r="M37" t="n">
         <v>2.8</v>
       </c>
-      <c r="N37" t="s">
-        <v>408</v>
+      <c r="N37" t="n">
+        <v>8331553</v>
       </c>
       <c r="O37" t="n">
         <v>2.95</v>
       </c>
-      <c r="P37" t="s">
-        <v>409</v>
+      <c r="P37" t="n">
+        <v>7671335</v>
       </c>
       <c r="Q37" t="n">
         <v>2.62</v>
       </c>
-      <c r="R37" t="s">
-        <v>410</v>
+      <c r="R37" t="n">
+        <v>7779030</v>
       </c>
       <c r="S37" t="n">
         <v>2.68</v>
       </c>
-      <c r="T37" t="s">
-        <v>411</v>
+      <c r="T37" t="n">
+        <v>7565075</v>
       </c>
       <c r="U37" t="n">
         <v>2.52</v>
       </c>
-      <c r="V37" t="s">
-        <v>412</v>
+      <c r="V37" t="n">
+        <v>8054261</v>
       </c>
       <c r="W37" t="n">
         <v>2.71</v>
       </c>
-      <c r="X37" t="s">
-        <v>413</v>
+      <c r="X37" t="n">
+        <v>8013265</v>
       </c>
       <c r="Y37" t="n">
         <v>2.73</v>
       </c>
-      <c r="Z37" t="s">
-        <v>414</v>
+      <c r="Z37" t="n">
+        <v>7927247</v>
       </c>
       <c r="AA37" t="n">
         <v>2.84</v>
       </c>
-      <c r="AB37" t="s">
-        <v>415</v>
+      <c r="AB37" t="n">
+        <v>7724871</v>
       </c>
       <c r="AC37" t="n">
         <v>2.87</v>
       </c>
-      <c r="AD37" t="s">
-        <v>416</v>
+      <c r="AD37" t="n">
+        <v>7724396</v>
       </c>
       <c r="AE37" t="n">
         <v>2.91</v>
       </c>
-      <c r="AF37" t="s">
-        <v>417</v>
+      <c r="AF37" t="n">
+        <v>7444947</v>
       </c>
       <c r="AG37" t="n">
         <v>2.79</v>
@@ -5515,100 +3583,100 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B38" t="s">
-        <v>419</v>
+        <v>68</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36921759</v>
       </c>
       <c r="C38" t="n">
         <v>13.53</v>
       </c>
-      <c r="D38" t="s">
-        <v>419</v>
+      <c r="D38" t="n">
+        <v>36921759</v>
       </c>
       <c r="E38" t="n">
         <v>13.49</v>
       </c>
-      <c r="F38" t="s">
-        <v>419</v>
+      <c r="F38" t="n">
+        <v>36921759</v>
       </c>
       <c r="G38" t="n">
         <v>13.57</v>
       </c>
-      <c r="H38" t="s">
-        <v>419</v>
+      <c r="H38" t="n">
+        <v>36921759</v>
       </c>
       <c r="I38" t="n">
         <v>13.06</v>
       </c>
-      <c r="J38" t="s">
-        <v>419</v>
+      <c r="J38" t="n">
+        <v>36921759</v>
       </c>
       <c r="K38" t="n">
         <v>12.92</v>
       </c>
-      <c r="L38" t="s">
-        <v>419</v>
+      <c r="L38" t="n">
+        <v>36921759</v>
       </c>
       <c r="M38" t="n">
         <v>13.16</v>
       </c>
-      <c r="N38" t="s">
-        <v>419</v>
+      <c r="N38" t="n">
+        <v>36921759</v>
       </c>
       <c r="O38" t="n">
         <v>13.06</v>
       </c>
-      <c r="P38" t="s">
-        <v>419</v>
+      <c r="P38" t="n">
+        <v>36921759</v>
       </c>
       <c r="Q38" t="n">
         <v>12.61</v>
       </c>
-      <c r="R38" t="s">
-        <v>419</v>
+      <c r="R38" t="n">
+        <v>36921759</v>
       </c>
       <c r="S38" t="n">
         <v>12.74</v>
       </c>
-      <c r="T38" t="s">
-        <v>419</v>
+      <c r="T38" t="n">
+        <v>36921759</v>
       </c>
       <c r="U38" t="n">
         <v>12.31</v>
       </c>
-      <c r="V38" t="s">
-        <v>419</v>
+      <c r="V38" t="n">
+        <v>36921759</v>
       </c>
       <c r="W38" t="n">
         <v>12.44</v>
       </c>
-      <c r="X38" t="s">
-        <v>419</v>
+      <c r="X38" t="n">
+        <v>36921759</v>
       </c>
       <c r="Y38" t="n">
         <v>12.6</v>
       </c>
-      <c r="Z38" t="s">
-        <v>419</v>
+      <c r="Z38" t="n">
+        <v>36921759</v>
       </c>
       <c r="AA38" t="n">
         <v>13.24</v>
       </c>
-      <c r="AB38" t="s">
-        <v>419</v>
+      <c r="AB38" t="n">
+        <v>36921759</v>
       </c>
       <c r="AC38" t="n">
         <v>13.74</v>
       </c>
-      <c r="AD38" t="s">
-        <v>419</v>
+      <c r="AD38" t="n">
+        <v>36921759</v>
       </c>
       <c r="AE38" t="n">
         <v>13.93</v>
       </c>
-      <c r="AF38" t="s">
-        <v>419</v>
+      <c r="AF38" t="n">
+        <v>36921759</v>
       </c>
       <c r="AG38" t="n">
         <v>13.83</v>
@@ -5616,30 +3684,30 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="1" t="s">
-        <v>420</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s"/>
       <c r="C39" t="s"/>
-      <c r="D39" t="s">
-        <v>421</v>
+      <c r="D39" t="n">
+        <v>17295884</v>
       </c>
       <c r="E39" t="n">
         <v>6.32</v>
       </c>
-      <c r="F39" t="s">
-        <v>422</v>
+      <c r="F39" t="n">
+        <v>20726453</v>
       </c>
       <c r="G39" t="n">
         <v>7.62</v>
       </c>
-      <c r="H39" t="s">
-        <v>423</v>
+      <c r="H39" t="n">
+        <v>23488214</v>
       </c>
       <c r="I39" t="n">
         <v>8.31</v>
       </c>
-      <c r="J39" t="s">
-        <v>424</v>
+      <c r="J39" t="n">
+        <v>25321353</v>
       </c>
       <c r="K39" t="n">
         <v>8.859999999999999</v>
@@ -5669,7 +3737,7 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="1" t="s">
-        <v>425</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s"/>
       <c r="C40" t="s"/>
@@ -5687,50 +3755,50 @@
       <c r="O40" t="s"/>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="s">
-        <v>426</v>
+      <c r="R40" t="n">
+        <v>1597080</v>
       </c>
       <c r="S40" t="n">
         <v>0.55</v>
       </c>
-      <c r="T40" t="s">
-        <v>427</v>
+      <c r="T40" t="n">
+        <v>1060679</v>
       </c>
       <c r="U40" t="n">
         <v>0.35</v>
       </c>
-      <c r="V40" t="s">
-        <v>428</v>
+      <c r="V40" t="n">
+        <v>793415</v>
       </c>
       <c r="W40" t="n">
         <v>0.27</v>
       </c>
-      <c r="X40" t="s">
-        <v>429</v>
+      <c r="X40" t="n">
+        <v>1214642</v>
       </c>
       <c r="Y40" t="n">
         <v>0.41</v>
       </c>
-      <c r="Z40" t="s">
-        <v>430</v>
+      <c r="Z40" t="n">
+        <v>1340178</v>
       </c>
       <c r="AA40" t="n">
         <v>0.48</v>
       </c>
-      <c r="AB40" t="s">
-        <v>431</v>
+      <c r="AB40" t="n">
+        <v>877862</v>
       </c>
       <c r="AC40" t="n">
         <v>0.33</v>
       </c>
-      <c r="AD40" t="s">
-        <v>432</v>
+      <c r="AD40" t="n">
+        <v>795600</v>
       </c>
       <c r="AE40" t="n">
         <v>0.3</v>
       </c>
-      <c r="AF40" t="s">
-        <v>433</v>
+      <c r="AF40" t="n">
+        <v>1324329</v>
       </c>
       <c r="AG40" t="n">
         <v>0.5</v>
@@ -5738,100 +3806,100 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B41" t="s">
-        <v>435</v>
+        <v>71</v>
+      </c>
+      <c r="B41" t="n">
+        <v>145365698</v>
       </c>
       <c r="C41" t="n">
         <v>53.28</v>
       </c>
-      <c r="D41" t="s">
-        <v>436</v>
+      <c r="D41" t="n">
+        <v>139207168</v>
       </c>
       <c r="E41" t="n">
         <v>50.87</v>
       </c>
-      <c r="F41" t="s">
-        <v>437</v>
+      <c r="F41" t="n">
+        <v>145196356</v>
       </c>
       <c r="G41" t="n">
         <v>53.38</v>
       </c>
-      <c r="H41" t="s">
-        <v>438</v>
+      <c r="H41" t="n">
+        <v>153618577</v>
       </c>
       <c r="I41" t="n">
         <v>54.34</v>
       </c>
-      <c r="J41" t="s">
-        <v>439</v>
+      <c r="J41" t="n">
+        <v>158255100</v>
       </c>
       <c r="K41" t="n">
         <v>55.38</v>
       </c>
-      <c r="L41" t="s">
-        <v>440</v>
+      <c r="L41" t="n">
+        <v>147496365</v>
       </c>
       <c r="M41" t="n">
         <v>52.56</v>
       </c>
-      <c r="N41" t="s">
-        <v>441</v>
+      <c r="N41" t="n">
+        <v>153411035</v>
       </c>
       <c r="O41" t="n">
         <v>54.28</v>
       </c>
-      <c r="P41" t="s">
-        <v>442</v>
+      <c r="P41" t="n">
+        <v>162017681</v>
       </c>
       <c r="Q41" t="n">
         <v>55.34</v>
       </c>
-      <c r="R41" t="s">
-        <v>443</v>
+      <c r="R41" t="n">
+        <v>162219457</v>
       </c>
       <c r="S41" t="n">
         <v>55.98</v>
       </c>
-      <c r="T41" t="s">
-        <v>444</v>
+      <c r="T41" t="n">
+        <v>150965857</v>
       </c>
       <c r="U41" t="n">
         <v>50.34</v>
       </c>
-      <c r="V41" t="s">
-        <v>445</v>
+      <c r="V41" t="n">
+        <v>157639379</v>
       </c>
       <c r="W41" t="n">
         <v>53.12</v>
       </c>
-      <c r="X41" t="s">
-        <v>446</v>
+      <c r="X41" t="n">
+        <v>155484252</v>
       </c>
       <c r="Y41" t="n">
         <v>53.05</v>
       </c>
-      <c r="Z41" t="s">
-        <v>447</v>
+      <c r="Z41" t="n">
+        <v>154750268</v>
       </c>
       <c r="AA41" t="n">
         <v>55.5</v>
       </c>
-      <c r="AB41" t="s">
-        <v>448</v>
+      <c r="AB41" t="n">
+        <v>146772743</v>
       </c>
       <c r="AC41" t="n">
         <v>54.61</v>
       </c>
-      <c r="AD41" t="s">
-        <v>449</v>
+      <c r="AD41" t="n">
+        <v>145457904</v>
       </c>
       <c r="AE41" t="n">
         <v>54.87</v>
       </c>
-      <c r="AF41" t="s">
-        <v>450</v>
+      <c r="AF41" t="n">
+        <v>147396671</v>
       </c>
       <c r="AG41" t="n">
         <v>55.21</v>
@@ -5839,100 +3907,100 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B42" t="s">
-        <v>452</v>
+        <v>72</v>
+      </c>
+      <c r="B42" t="n">
+        <v>107872920</v>
       </c>
       <c r="C42" t="n">
         <v>39.54</v>
       </c>
-      <c r="D42" t="s">
-        <v>453</v>
+      <c r="D42" t="n">
+        <v>101767224</v>
       </c>
       <c r="E42" t="n">
         <v>37.19</v>
       </c>
-      <c r="F42" t="s">
-        <v>454</v>
+      <c r="F42" t="n">
+        <v>106629255</v>
       </c>
       <c r="G42" t="n">
         <v>39.2</v>
       </c>
-      <c r="H42" t="s">
-        <v>455</v>
+      <c r="H42" t="n">
+        <v>113077945</v>
       </c>
       <c r="I42" t="n">
         <v>40</v>
       </c>
-      <c r="J42" t="s">
-        <v>456</v>
+      <c r="J42" t="n">
+        <v>117094940</v>
       </c>
       <c r="K42" t="n">
         <v>40.98</v>
       </c>
-      <c r="L42" t="s">
-        <v>457</v>
+      <c r="L42" t="n">
+        <v>107880371</v>
       </c>
       <c r="M42" t="n">
         <v>38.44</v>
       </c>
-      <c r="N42" t="s">
-        <v>458</v>
+      <c r="N42" t="n">
+        <v>111500190</v>
       </c>
       <c r="O42" t="n">
         <v>39.45</v>
       </c>
-      <c r="P42" t="s">
-        <v>459</v>
+      <c r="P42" t="n">
+        <v>117958870</v>
       </c>
       <c r="Q42" t="n">
         <v>40.29</v>
       </c>
-      <c r="R42" t="s">
-        <v>460</v>
+      <c r="R42" t="n">
+        <v>118307697</v>
       </c>
       <c r="S42" t="n">
         <v>40.83</v>
       </c>
-      <c r="T42" t="s">
-        <v>461</v>
+      <c r="T42" t="n">
+        <v>109626077</v>
       </c>
       <c r="U42" t="n">
         <v>36.56</v>
       </c>
-      <c r="V42" t="s">
-        <v>462</v>
+      <c r="V42" t="n">
+        <v>109456232</v>
       </c>
       <c r="W42" t="n">
         <v>36.89</v>
       </c>
-      <c r="X42" t="s">
-        <v>463</v>
+      <c r="X42" t="n">
+        <v>108042985</v>
       </c>
       <c r="Y42" t="n">
         <v>36.87</v>
       </c>
-      <c r="Z42" t="s">
-        <v>464</v>
+      <c r="Z42" t="n">
+        <v>107709460</v>
       </c>
       <c r="AA42" t="n">
         <v>38.63</v>
       </c>
-      <c r="AB42" t="s">
-        <v>465</v>
+      <c r="AB42" t="n">
+        <v>102334404</v>
       </c>
       <c r="AC42" t="n">
         <v>38.07</v>
       </c>
-      <c r="AD42" t="s">
-        <v>466</v>
+      <c r="AD42" t="n">
+        <v>105176028</v>
       </c>
       <c r="AE42" t="n">
         <v>39.68</v>
       </c>
-      <c r="AF42" t="s">
-        <v>467</v>
+      <c r="AF42" t="n">
+        <v>106768051</v>
       </c>
       <c r="AG42" t="n">
         <v>39.99</v>
@@ -5940,99 +4008,99 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B43" t="s">
-        <v>50</v>
+        <v>73</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
       </c>
       <c r="C43" t="s"/>
-      <c r="D43" t="s">
-        <v>50</v>
+      <c r="D43" t="n">
+        <v>0</v>
       </c>
       <c r="E43" t="s"/>
-      <c r="F43" t="s">
-        <v>50</v>
+      <c r="F43" t="n">
+        <v>0</v>
       </c>
       <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>50</v>
+      <c r="H43" t="n">
+        <v>0</v>
       </c>
       <c r="I43" t="s"/>
-      <c r="J43" t="s">
-        <v>50</v>
+      <c r="J43" t="n">
+        <v>0</v>
       </c>
       <c r="K43" t="s"/>
-      <c r="L43" t="s">
-        <v>50</v>
+      <c r="L43" t="n">
+        <v>0</v>
       </c>
       <c r="M43" t="s"/>
-      <c r="N43" t="s">
-        <v>50</v>
+      <c r="N43" t="n">
+        <v>0</v>
       </c>
       <c r="O43" t="s"/>
-      <c r="P43" t="s">
-        <v>50</v>
+      <c r="P43" t="n">
+        <v>0</v>
       </c>
       <c r="Q43" t="s"/>
-      <c r="R43" t="s">
-        <v>50</v>
+      <c r="R43" t="n">
+        <v>0</v>
       </c>
       <c r="S43" t="s"/>
-      <c r="T43" t="s">
-        <v>50</v>
+      <c r="T43" t="n">
+        <v>0</v>
       </c>
       <c r="U43" t="s"/>
-      <c r="V43" t="s">
-        <v>50</v>
+      <c r="V43" t="n">
+        <v>0</v>
       </c>
       <c r="W43" t="s"/>
-      <c r="X43" t="s">
-        <v>50</v>
+      <c r="X43" t="n">
+        <v>0</v>
       </c>
       <c r="Y43" t="s"/>
-      <c r="Z43" t="s">
-        <v>50</v>
+      <c r="Z43" t="n">
+        <v>0</v>
       </c>
       <c r="AA43" t="s"/>
-      <c r="AB43" t="s">
-        <v>50</v>
+      <c r="AB43" t="n">
+        <v>0</v>
       </c>
       <c r="AC43" t="s"/>
-      <c r="AD43" t="s">
-        <v>50</v>
+      <c r="AD43" t="n">
+        <v>0</v>
       </c>
       <c r="AE43" t="s"/>
-      <c r="AF43" t="s">
-        <v>50</v>
+      <c r="AF43" t="n">
+        <v>0</v>
       </c>
       <c r="AG43" t="s"/>
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="1" t="s">
-        <v>469</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s"/>
       <c r="C44" t="s"/>
-      <c r="D44" t="s">
-        <v>470</v>
+      <c r="D44" t="n">
+        <v>10726105</v>
       </c>
       <c r="E44" t="n">
         <v>3.92</v>
       </c>
-      <c r="F44" t="s">
-        <v>470</v>
+      <c r="F44" t="n">
+        <v>10726105</v>
       </c>
       <c r="G44" t="n">
         <v>3.94</v>
       </c>
-      <c r="H44" t="s">
-        <v>470</v>
+      <c r="H44" t="n">
+        <v>10726105</v>
       </c>
       <c r="I44" t="n">
         <v>3.79</v>
       </c>
-      <c r="J44" t="s">
-        <v>470</v>
+      <c r="J44" t="n">
+        <v>10726105</v>
       </c>
       <c r="K44" t="n">
         <v>3.75</v>
@@ -6062,100 +4130,100 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B45" t="s">
-        <v>472</v>
+        <v>75</v>
+      </c>
+      <c r="B45" t="n">
+        <v>65913019</v>
       </c>
       <c r="C45" t="n">
         <v>24.16</v>
       </c>
-      <c r="D45" t="s">
-        <v>473</v>
+      <c r="D45" t="n">
+        <v>68971246</v>
       </c>
       <c r="E45" t="n">
         <v>25.2</v>
       </c>
-      <c r="F45" t="s">
-        <v>474</v>
+      <c r="F45" t="n">
+        <v>73733391</v>
       </c>
       <c r="G45" t="n">
         <v>27.11</v>
       </c>
-      <c r="H45" t="s">
-        <v>475</v>
+      <c r="H45" t="n">
+        <v>70398494</v>
       </c>
       <c r="I45" t="n">
         <v>24.9</v>
       </c>
-      <c r="J45" t="s">
-        <v>476</v>
+      <c r="J45" t="n">
+        <v>74388787</v>
       </c>
       <c r="K45" t="n">
         <v>26.03</v>
       </c>
-      <c r="L45" t="s">
-        <v>477</v>
+      <c r="L45" t="n">
+        <v>81190613</v>
       </c>
       <c r="M45" t="n">
         <v>28.93</v>
       </c>
-      <c r="N45" t="s">
-        <v>478</v>
+      <c r="N45" t="n">
+        <v>78920574</v>
       </c>
       <c r="O45" t="n">
         <v>27.92</v>
       </c>
-      <c r="P45" t="s">
-        <v>479</v>
+      <c r="P45" t="n">
+        <v>68632044</v>
       </c>
       <c r="Q45" t="n">
         <v>23.44</v>
       </c>
-      <c r="R45" t="s">
-        <v>480</v>
+      <c r="R45" t="n">
+        <v>69579858</v>
       </c>
       <c r="S45" t="n">
         <v>24.01</v>
       </c>
-      <c r="T45" t="s">
-        <v>481</v>
+      <c r="T45" t="n">
+        <v>78918446</v>
       </c>
       <c r="U45" t="n">
         <v>26.32</v>
       </c>
-      <c r="V45" t="s">
-        <v>482</v>
+      <c r="V45" t="n">
+        <v>70796103</v>
       </c>
       <c r="W45" t="n">
         <v>23.86</v>
       </c>
-      <c r="X45" t="s">
-        <v>483</v>
+      <c r="X45" t="n">
+        <v>68083832</v>
       </c>
       <c r="Y45" t="n">
         <v>23.23</v>
       </c>
-      <c r="Z45" t="s">
-        <v>484</v>
+      <c r="Z45" t="n">
+        <v>64818835</v>
       </c>
       <c r="AA45" t="n">
         <v>23.25</v>
       </c>
-      <c r="AB45" t="s">
-        <v>485</v>
+      <c r="AB45" t="n">
+        <v>58857466</v>
       </c>
       <c r="AC45" t="n">
         <v>21.9</v>
       </c>
-      <c r="AD45" t="s">
-        <v>486</v>
+      <c r="AD45" t="n">
+        <v>61983521</v>
       </c>
       <c r="AE45" t="n">
         <v>23.38</v>
       </c>
-      <c r="AF45" t="s">
-        <v>487</v>
+      <c r="AF45" t="n">
+        <v>55104919</v>
       </c>
       <c r="AG45" t="n">
         <v>20.64</v>
@@ -6163,100 +4231,100 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B46" t="s">
-        <v>489</v>
+        <v>76</v>
+      </c>
+      <c r="B46" t="n">
+        <v>77246355</v>
       </c>
       <c r="C46" t="n">
         <v>28.31</v>
       </c>
-      <c r="D46" t="s">
-        <v>490</v>
+      <c r="D46" t="n">
+        <v>77139390</v>
       </c>
       <c r="E46" t="n">
         <v>28.19</v>
       </c>
-      <c r="F46" t="s">
-        <v>491</v>
+      <c r="F46" t="n">
+        <v>77212043</v>
       </c>
       <c r="G46" t="n">
         <v>28.39</v>
       </c>
-      <c r="H46" t="s">
-        <v>492</v>
+      <c r="H46" t="n">
+        <v>87788055</v>
       </c>
       <c r="I46" t="n">
         <v>31.06</v>
       </c>
-      <c r="J46" t="s">
-        <v>493</v>
+      <c r="J46" t="n">
+        <v>92121458</v>
       </c>
       <c r="K46" t="n">
         <v>32.24</v>
       </c>
-      <c r="L46" t="s">
-        <v>494</v>
+      <c r="L46" t="n">
+        <v>89163129</v>
       </c>
       <c r="M46" t="n">
         <v>31.77</v>
       </c>
-      <c r="N46" t="s">
-        <v>495</v>
+      <c r="N46" t="n">
+        <v>89472928</v>
       </c>
       <c r="O46" t="n">
         <v>31.66</v>
       </c>
-      <c r="P46" t="s">
-        <v>496</v>
+      <c r="P46" t="n">
+        <v>96605816</v>
       </c>
       <c r="Q46" t="n">
         <v>33</v>
       </c>
-      <c r="R46" t="s">
-        <v>497</v>
+      <c r="R46" t="n">
+        <v>92471096</v>
       </c>
       <c r="S46" t="n">
         <v>31.91</v>
       </c>
-      <c r="T46" t="s">
-        <v>498</v>
+      <c r="T46" t="n">
+        <v>95602989</v>
       </c>
       <c r="U46" t="n">
         <v>31.88</v>
       </c>
-      <c r="V46" t="s">
-        <v>499</v>
+      <c r="V46" t="n">
+        <v>90814601</v>
       </c>
       <c r="W46" t="n">
         <v>30.6</v>
       </c>
-      <c r="X46" t="s">
-        <v>500</v>
+      <c r="X46" t="n">
+        <v>90593376</v>
       </c>
       <c r="Y46" t="n">
         <v>30.91</v>
       </c>
-      <c r="Z46" t="s">
-        <v>501</v>
+      <c r="Z46" t="n">
+        <v>78482102</v>
       </c>
       <c r="AA46" t="n">
         <v>28.15</v>
       </c>
-      <c r="AB46" t="s">
-        <v>502</v>
+      <c r="AB46" t="n">
+        <v>72814811</v>
       </c>
       <c r="AC46" t="n">
         <v>27.09</v>
       </c>
-      <c r="AD46" t="s">
-        <v>503</v>
+      <c r="AD46" t="n">
+        <v>74178175</v>
       </c>
       <c r="AE46" t="n">
         <v>27.98</v>
       </c>
-      <c r="AF46" t="s">
-        <v>504</v>
+      <c r="AF46" t="n">
+        <v>77884012</v>
       </c>
       <c r="AG46" t="n">
         <v>29.17</v>
@@ -6264,100 +4332,100 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B47" t="s">
-        <v>506</v>
+        <v>77</v>
+      </c>
+      <c r="B47" t="n">
+        <v>19111565</v>
       </c>
       <c r="C47" t="n">
         <v>7</v>
       </c>
-      <c r="D47" t="s">
-        <v>507</v>
+      <c r="D47" t="n">
+        <v>19486078</v>
       </c>
       <c r="E47" t="n">
         <v>7.12</v>
       </c>
-      <c r="F47" t="s">
-        <v>508</v>
+      <c r="F47" t="n">
+        <v>19255712</v>
       </c>
       <c r="G47" t="n">
         <v>7.08</v>
       </c>
-      <c r="H47" t="s">
-        <v>509</v>
+      <c r="H47" t="n">
+        <v>19495931</v>
       </c>
       <c r="I47" t="n">
         <v>6.9</v>
       </c>
-      <c r="J47" t="s">
-        <v>510</v>
+      <c r="J47" t="n">
+        <v>19439255</v>
       </c>
       <c r="K47" t="n">
         <v>6.8</v>
       </c>
-      <c r="L47" t="s">
-        <v>511</v>
+      <c r="L47" t="n">
+        <v>19155139</v>
       </c>
       <c r="M47" t="n">
         <v>6.83</v>
       </c>
-      <c r="N47" t="s">
-        <v>512</v>
+      <c r="N47" t="n">
+        <v>19321443</v>
       </c>
       <c r="O47" t="n">
         <v>6.84</v>
       </c>
-      <c r="P47" t="s">
-        <v>513</v>
+      <c r="P47" t="n">
+        <v>19542637</v>
       </c>
       <c r="Q47" t="n">
         <v>6.68</v>
       </c>
-      <c r="R47" t="s">
-        <v>514</v>
+      <c r="R47" t="n">
+        <v>19879896</v>
       </c>
       <c r="S47" t="n">
         <v>6.86</v>
       </c>
-      <c r="T47" t="s">
-        <v>515</v>
+      <c r="T47" t="n">
+        <v>21768685</v>
       </c>
       <c r="U47" t="n">
         <v>7.26</v>
       </c>
-      <c r="V47" t="s">
-        <v>516</v>
+      <c r="V47" t="n">
+        <v>22935744</v>
       </c>
       <c r="W47" t="n">
         <v>7.73</v>
       </c>
-      <c r="X47" t="s">
-        <v>517</v>
+      <c r="X47" t="n">
+        <v>22607552</v>
       </c>
       <c r="Y47" t="n">
         <v>7.71</v>
       </c>
-      <c r="Z47" t="s">
-        <v>518</v>
+      <c r="Z47" t="n">
+        <v>22341314</v>
       </c>
       <c r="AA47" t="n">
         <v>8.01</v>
       </c>
-      <c r="AB47" t="s">
-        <v>519</v>
+      <c r="AB47" t="n">
+        <v>21978037</v>
       </c>
       <c r="AC47" t="n">
         <v>8.18</v>
       </c>
-      <c r="AD47" t="s">
-        <v>520</v>
+      <c r="AD47" t="n">
+        <v>21389833</v>
       </c>
       <c r="AE47" t="n">
         <v>8.07</v>
       </c>
-      <c r="AF47" t="s">
-        <v>521</v>
+      <c r="AF47" t="n">
+        <v>21175282</v>
       </c>
       <c r="AG47" t="n">
         <v>7.93</v>
@@ -6365,30 +4433,30 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="1" t="s">
-        <v>522</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s"/>
       <c r="C48" t="s"/>
-      <c r="D48" t="s">
-        <v>523</v>
+      <c r="D48" t="n">
+        <v>13053436</v>
       </c>
       <c r="E48" t="n">
         <v>4.77</v>
       </c>
-      <c r="F48" t="s">
-        <v>524</v>
+      <c r="F48" t="n">
+        <v>13053491</v>
       </c>
       <c r="G48" t="n">
         <v>4.8</v>
       </c>
-      <c r="H48" t="s">
-        <v>525</v>
+      <c r="H48" t="n">
+        <v>13051193</v>
       </c>
       <c r="I48" t="n">
         <v>4.62</v>
       </c>
-      <c r="J48" t="s">
-        <v>525</v>
+      <c r="J48" t="n">
+        <v>13051193</v>
       </c>
       <c r="K48" t="n">
         <v>4.57</v>
@@ -6418,100 +4486,100 @@
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B49" t="s">
-        <v>527</v>
+        <v>79</v>
+      </c>
+      <c r="B49" t="n">
+        <v>18994984</v>
       </c>
       <c r="C49" t="n">
         <v>6.96</v>
       </c>
-      <c r="D49" t="s">
-        <v>528</v>
+      <c r="D49" t="n">
+        <v>20171167</v>
       </c>
       <c r="E49" t="n">
         <v>7.37</v>
       </c>
-      <c r="F49" t="s">
-        <v>529</v>
+      <c r="F49" t="n">
+        <v>19104057</v>
       </c>
       <c r="G49" t="n">
         <v>7.02</v>
       </c>
-      <c r="H49" t="s">
-        <v>530</v>
+      <c r="H49" t="n">
+        <v>25711065</v>
       </c>
       <c r="I49" t="n">
         <v>9.1</v>
       </c>
-      <c r="J49" t="s">
-        <v>531</v>
+      <c r="J49" t="n">
+        <v>29329415</v>
       </c>
       <c r="K49" t="n">
         <v>10.26</v>
       </c>
-      <c r="L49" t="s">
-        <v>532</v>
+      <c r="L49" t="n">
+        <v>29177252</v>
       </c>
       <c r="M49" t="n">
         <v>10.4</v>
       </c>
-      <c r="N49" t="s">
-        <v>533</v>
+      <c r="N49" t="n">
+        <v>27917164</v>
       </c>
       <c r="O49" t="n">
         <v>9.880000000000001</v>
       </c>
-      <c r="P49" t="s">
-        <v>534</v>
+      <c r="P49" t="n">
+        <v>30514042</v>
       </c>
       <c r="Q49" t="n">
         <v>10.42</v>
       </c>
-      <c r="R49" t="s">
-        <v>535</v>
+      <c r="R49" t="n">
+        <v>31406216</v>
       </c>
       <c r="S49" t="n">
         <v>10.84</v>
       </c>
-      <c r="T49" t="s">
-        <v>536</v>
+      <c r="T49" t="n">
+        <v>35848634</v>
       </c>
       <c r="U49" t="n">
         <v>11.95</v>
       </c>
-      <c r="V49" t="s">
-        <v>537</v>
+      <c r="V49" t="n">
+        <v>35931378</v>
       </c>
       <c r="W49" t="n">
         <v>12.11</v>
       </c>
-      <c r="X49" t="s">
-        <v>538</v>
+      <c r="X49" t="n">
+        <v>38977360</v>
       </c>
       <c r="Y49" t="n">
         <v>13.3</v>
       </c>
-      <c r="Z49" t="s">
-        <v>539</v>
+      <c r="Z49" t="n">
+        <v>31747040</v>
       </c>
       <c r="AA49" t="n">
         <v>11.39</v>
       </c>
-      <c r="AB49" t="s">
-        <v>540</v>
+      <c r="AB49" t="n">
+        <v>26182757</v>
       </c>
       <c r="AC49" t="n">
         <v>9.74</v>
       </c>
-      <c r="AD49" t="s">
-        <v>541</v>
+      <c r="AD49" t="n">
+        <v>27229371</v>
       </c>
       <c r="AE49" t="n">
         <v>10.27</v>
       </c>
-      <c r="AF49" t="s">
-        <v>542</v>
+      <c r="AF49" t="n">
+        <v>28179758</v>
       </c>
       <c r="AG49" t="n">
         <v>10.55</v>
@@ -6519,10 +4587,10 @@
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B50" t="s">
-        <v>544</v>
+        <v>80</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-15264</v>
       </c>
       <c r="C50" t="n">
         <v>-0.01</v>
@@ -6560,52 +4628,52 @@
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B51" t="s">
-        <v>546</v>
+        <v>81</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1416789</v>
       </c>
       <c r="C51" t="n">
         <v>0.52</v>
       </c>
-      <c r="D51" t="s">
-        <v>547</v>
+      <c r="D51" t="n">
+        <v>913601</v>
       </c>
       <c r="E51" t="n">
         <v>0.33</v>
       </c>
-      <c r="F51" t="s">
-        <v>548</v>
+      <c r="F51" t="n">
+        <v>1180194</v>
       </c>
       <c r="G51" t="n">
         <v>0.43</v>
       </c>
-      <c r="H51" t="s">
-        <v>549</v>
+      <c r="H51" t="n">
+        <v>1899948</v>
       </c>
       <c r="I51" t="n">
         <v>0.67</v>
       </c>
-      <c r="J51" t="s">
-        <v>550</v>
+      <c r="J51" t="n">
+        <v>1702730</v>
       </c>
       <c r="K51" t="n">
         <v>0.6</v>
       </c>
-      <c r="L51" t="s">
-        <v>551</v>
+      <c r="L51" t="n">
+        <v>1468259</v>
       </c>
       <c r="M51" t="n">
         <v>0.52</v>
       </c>
-      <c r="N51" t="s">
-        <v>552</v>
+      <c r="N51" t="n">
+        <v>1443139</v>
       </c>
       <c r="O51" t="n">
         <v>0.51</v>
       </c>
-      <c r="P51" t="s">
-        <v>553</v>
+      <c r="P51" t="n">
+        <v>2226142</v>
       </c>
       <c r="Q51" t="n">
         <v>0.76</v>
@@ -6629,100 +4697,100 @@
     </row>
     <row r="52" spans="1:33">
       <c r="A52" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B52" t="s">
-        <v>555</v>
+        <v>82</v>
+      </c>
+      <c r="B52" t="n">
+        <v>18455981</v>
       </c>
       <c r="C52" t="n">
         <v>6.76</v>
       </c>
-      <c r="D52" t="s">
-        <v>556</v>
+      <c r="D52" t="n">
+        <v>16187106</v>
       </c>
       <c r="E52" t="n">
         <v>5.92</v>
       </c>
-      <c r="F52" t="s">
-        <v>557</v>
+      <c r="F52" t="n">
+        <v>25101401</v>
       </c>
       <c r="G52" t="n">
         <v>9.23</v>
       </c>
-      <c r="H52" t="s">
-        <v>558</v>
+      <c r="H52" t="n">
+        <v>18521893</v>
       </c>
       <c r="I52" t="n">
         <v>6.55</v>
       </c>
-      <c r="J52" t="s">
-        <v>559</v>
+      <c r="J52" t="n">
+        <v>24434534</v>
       </c>
       <c r="K52" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="L52" t="s">
-        <v>560</v>
+      <c r="L52" t="n">
+        <v>18931653</v>
       </c>
       <c r="M52" t="n">
         <v>6.75</v>
       </c>
-      <c r="N52" t="s">
-        <v>561</v>
+      <c r="N52" t="n">
+        <v>27455949</v>
       </c>
       <c r="O52" t="n">
         <v>9.710000000000001</v>
       </c>
-      <c r="P52" t="s">
-        <v>562</v>
+      <c r="P52" t="n">
+        <v>22975404</v>
       </c>
       <c r="Q52" t="n">
         <v>7.85</v>
       </c>
-      <c r="R52" t="s">
-        <v>563</v>
+      <c r="R52" t="n">
+        <v>26352924</v>
       </c>
       <c r="S52" t="n">
         <v>9.09</v>
       </c>
-      <c r="T52" t="s">
-        <v>564</v>
+      <c r="T52" t="n">
+        <v>23599288</v>
       </c>
       <c r="U52" t="n">
         <v>7.87</v>
       </c>
-      <c r="V52" t="s">
-        <v>565</v>
+      <c r="V52" t="n">
+        <v>29597568</v>
       </c>
       <c r="W52" t="n">
         <v>9.970000000000001</v>
       </c>
-      <c r="X52" t="s">
-        <v>566</v>
+      <c r="X52" t="n">
+        <v>22325389</v>
       </c>
       <c r="Y52" t="n">
         <v>7.62</v>
       </c>
-      <c r="Z52" t="s">
-        <v>567</v>
+      <c r="Z52" t="n">
+        <v>20205800</v>
       </c>
       <c r="AA52" t="n">
         <v>7.25</v>
       </c>
-      <c r="AB52" t="s">
-        <v>568</v>
+      <c r="AB52" t="n">
+        <v>15749372</v>
       </c>
       <c r="AC52" t="n">
         <v>5.86</v>
       </c>
-      <c r="AD52" t="s">
-        <v>569</v>
+      <c r="AD52" t="n">
+        <v>21325725</v>
       </c>
       <c r="AE52" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="AF52" t="s">
-        <v>570</v>
+      <c r="AF52" t="n">
+        <v>20635324</v>
       </c>
       <c r="AG52" t="n">
         <v>7.73</v>
@@ -6730,100 +4798,100 @@
     </row>
     <row r="53" spans="1:33">
       <c r="A53" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B53" t="s">
-        <v>419</v>
+        <v>83</v>
+      </c>
+      <c r="B53" t="n">
+        <v>36921759</v>
       </c>
       <c r="C53" t="n">
         <v>13.53</v>
       </c>
-      <c r="D53" t="s">
-        <v>419</v>
+      <c r="D53" t="n">
+        <v>36921759</v>
       </c>
       <c r="E53" t="n">
         <v>13.49</v>
       </c>
-      <c r="F53" t="s">
-        <v>419</v>
+      <c r="F53" t="n">
+        <v>36921759</v>
       </c>
       <c r="G53" t="n">
         <v>13.57</v>
       </c>
-      <c r="H53" t="s">
-        <v>419</v>
+      <c r="H53" t="n">
+        <v>36921759</v>
       </c>
       <c r="I53" t="n">
         <v>13.06</v>
       </c>
-      <c r="J53" t="s">
-        <v>419</v>
+      <c r="J53" t="n">
+        <v>36921759</v>
       </c>
       <c r="K53" t="n">
         <v>12.92</v>
       </c>
-      <c r="L53" t="s">
-        <v>419</v>
+      <c r="L53" t="n">
+        <v>36921759</v>
       </c>
       <c r="M53" t="n">
         <v>13.16</v>
       </c>
-      <c r="N53" t="s">
-        <v>419</v>
+      <c r="N53" t="n">
+        <v>36921759</v>
       </c>
       <c r="O53" t="n">
         <v>13.06</v>
       </c>
-      <c r="P53" t="s">
-        <v>419</v>
+      <c r="P53" t="n">
+        <v>36921759</v>
       </c>
       <c r="Q53" t="n">
         <v>12.61</v>
       </c>
-      <c r="R53" t="s">
-        <v>419</v>
+      <c r="R53" t="n">
+        <v>36921759</v>
       </c>
       <c r="S53" t="n">
         <v>12.74</v>
       </c>
-      <c r="T53" t="s">
-        <v>419</v>
+      <c r="T53" t="n">
+        <v>36921759</v>
       </c>
       <c r="U53" t="n">
         <v>12.31</v>
       </c>
-      <c r="V53" t="s">
-        <v>419</v>
+      <c r="V53" t="n">
+        <v>36921759</v>
       </c>
       <c r="W53" t="n">
         <v>12.44</v>
       </c>
-      <c r="X53" t="s">
-        <v>419</v>
+      <c r="X53" t="n">
+        <v>36921759</v>
       </c>
       <c r="Y53" t="n">
         <v>12.6</v>
       </c>
-      <c r="Z53" t="s">
-        <v>419</v>
+      <c r="Z53" t="n">
+        <v>36921759</v>
       </c>
       <c r="AA53" t="n">
         <v>13.24</v>
       </c>
-      <c r="AB53" t="s">
-        <v>419</v>
+      <c r="AB53" t="n">
+        <v>36921759</v>
       </c>
       <c r="AC53" t="n">
         <v>13.74</v>
       </c>
-      <c r="AD53" t="s">
-        <v>419</v>
+      <c r="AD53" t="n">
+        <v>36921759</v>
       </c>
       <c r="AE53" t="n">
         <v>13.93</v>
       </c>
-      <c r="AF53" t="s">
-        <v>419</v>
+      <c r="AF53" t="n">
+        <v>36921759</v>
       </c>
       <c r="AG53" t="n">
         <v>13.83</v>
@@ -6831,7 +4899,7 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="1" t="s">
-        <v>572</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s"/>
       <c r="C54" t="s"/>
@@ -6847,8 +4915,8 @@
       <c r="M54" t="s"/>
       <c r="N54" t="s"/>
       <c r="O54" t="s"/>
-      <c r="P54" t="s">
-        <v>50</v>
+      <c r="P54" t="n">
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
@@ -6872,7 +4940,7 @@
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="1" t="s">
-        <v>573</v>
+        <v>85</v>
       </c>
       <c r="B55" t="s"/>
       <c r="C55" t="s"/>
@@ -6890,50 +4958,50 @@
       <c r="O55" t="s"/>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
-      <c r="R55" t="s">
-        <v>574</v>
+      <c r="R55" t="n">
+        <v>289782835</v>
       </c>
       <c r="S55" t="n">
         <v>100</v>
       </c>
-      <c r="T55" t="s">
-        <v>575</v>
+      <c r="T55" t="n">
+        <v>299879447</v>
       </c>
       <c r="U55" t="n">
         <v>100</v>
       </c>
-      <c r="V55" t="s">
-        <v>576</v>
+      <c r="V55" t="n">
+        <v>296748604</v>
       </c>
       <c r="W55" t="n">
         <v>100</v>
       </c>
-      <c r="X55" t="s">
-        <v>577</v>
+      <c r="X55" t="n">
+        <v>293066355</v>
       </c>
       <c r="Y55" t="n">
         <v>100</v>
       </c>
-      <c r="Z55" t="s">
-        <v>578</v>
+      <c r="Z55" t="n">
+        <v>278830039</v>
       </c>
       <c r="AA55" t="n">
         <v>100</v>
       </c>
-      <c r="AB55" t="s">
-        <v>579</v>
+      <c r="AB55" t="n">
+        <v>268777321</v>
       </c>
       <c r="AC55" t="n">
         <v>100</v>
       </c>
-      <c r="AD55" t="s">
-        <v>580</v>
+      <c r="AD55" t="n">
+        <v>265077946</v>
       </c>
       <c r="AE55" t="n">
         <v>100</v>
       </c>
-      <c r="AF55" t="s">
-        <v>581</v>
+      <c r="AF55" t="n">
+        <v>266988696</v>
       </c>
       <c r="AG55" t="n">
         <v>100</v>
@@ -6941,7 +5009,7 @@
     </row>
     <row r="56" spans="1:33">
       <c r="A56" s="1" t="s">
-        <v>582</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s"/>
       <c r="C56" t="s"/>
@@ -6957,8 +5025,8 @@
       <c r="M56" t="s"/>
       <c r="N56" t="s"/>
       <c r="O56" t="s"/>
-      <c r="P56" t="s">
-        <v>50</v>
+      <c r="P56" t="n">
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -6982,7 +5050,7 @@
     </row>
     <row r="57" spans="1:33">
       <c r="A57" s="1" t="s">
-        <v>583</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s"/>
       <c r="C57" t="s"/>
@@ -6998,8 +5066,8 @@
       <c r="M57" t="s"/>
       <c r="N57" t="s"/>
       <c r="O57" t="s"/>
-      <c r="P57" t="s">
-        <v>50</v>
+      <c r="P57" t="n">
+        <v>0</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
@@ -7023,100 +5091,100 @@
     </row>
     <row r="58" spans="1:33">
       <c r="A58" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B58" t="s">
-        <v>585</v>
+        <v>88</v>
+      </c>
+      <c r="B58" t="n">
+        <v>127469535</v>
       </c>
       <c r="C58" t="n">
         <v>46.72</v>
       </c>
-      <c r="D58" t="s">
-        <v>586</v>
+      <c r="D58" t="n">
+        <v>134437287</v>
       </c>
       <c r="E58" t="n">
         <v>49.13</v>
       </c>
-      <c r="F58" t="s">
-        <v>587</v>
+      <c r="F58" t="n">
+        <v>126796585</v>
       </c>
       <c r="G58" t="n">
         <v>46.62</v>
       </c>
-      <c r="H58" t="s">
-        <v>588</v>
+      <c r="H58" t="n">
+        <v>129062162</v>
       </c>
       <c r="I58" t="n">
         <v>45.66</v>
       </c>
-      <c r="J58" t="s">
-        <v>589</v>
+      <c r="J58" t="n">
+        <v>127507218</v>
       </c>
       <c r="K58" t="n">
         <v>44.62</v>
       </c>
-      <c r="L58" t="s">
-        <v>590</v>
+      <c r="L58" t="n">
+        <v>133117207</v>
       </c>
       <c r="M58" t="n">
         <v>47.44</v>
       </c>
-      <c r="N58" t="s">
-        <v>591</v>
+      <c r="N58" t="n">
+        <v>129211890</v>
       </c>
       <c r="O58" t="n">
         <v>45.72</v>
       </c>
-      <c r="P58" t="s">
-        <v>592</v>
+      <c r="P58" t="n">
+        <v>130726151</v>
       </c>
       <c r="Q58" t="n">
         <v>44.66</v>
       </c>
-      <c r="R58" t="s">
-        <v>593</v>
+      <c r="R58" t="n">
+        <v>127563378</v>
       </c>
       <c r="S58" t="n">
         <v>44.02</v>
       </c>
-      <c r="T58" t="s">
-        <v>594</v>
+      <c r="T58" t="n">
+        <v>148913590</v>
       </c>
       <c r="U58" t="n">
         <v>49.66</v>
       </c>
-      <c r="V58" t="s">
-        <v>595</v>
+      <c r="V58" t="n">
+        <v>139109225</v>
       </c>
       <c r="W58" t="n">
         <v>46.88</v>
       </c>
-      <c r="X58" t="s">
-        <v>596</v>
+      <c r="X58" t="n">
+        <v>137582103</v>
       </c>
       <c r="Y58" t="n">
         <v>46.95</v>
       </c>
-      <c r="Z58" t="s">
-        <v>597</v>
+      <c r="Z58" t="n">
+        <v>124079771</v>
       </c>
       <c r="AA58" t="n">
         <v>44.5</v>
       </c>
-      <c r="AB58" t="s">
-        <v>598</v>
+      <c r="AB58" t="n">
+        <v>122004578</v>
       </c>
       <c r="AC58" t="n">
         <v>45.39</v>
       </c>
-      <c r="AD58" t="s">
-        <v>599</v>
+      <c r="AD58" t="n">
+        <v>119620042</v>
       </c>
       <c r="AE58" t="n">
         <v>45.13</v>
       </c>
-      <c r="AF58" t="s">
-        <v>600</v>
+      <c r="AF58" t="n">
+        <v>119592025</v>
       </c>
       <c r="AG58" t="n">
         <v>44.79</v>
@@ -7124,100 +5192,100 @@
     </row>
     <row r="59" spans="1:33">
       <c r="A59" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B59" t="s">
-        <v>602</v>
+        <v>89</v>
+      </c>
+      <c r="B59" t="n">
+        <v>12215684</v>
       </c>
       <c r="C59" t="n">
         <v>4.48</v>
       </c>
-      <c r="D59" t="s">
-        <v>603</v>
+      <c r="D59" t="n">
+        <v>12192857</v>
       </c>
       <c r="E59" t="n">
         <v>4.46</v>
       </c>
-      <c r="F59" t="s">
-        <v>603</v>
+      <c r="F59" t="n">
+        <v>12192857</v>
       </c>
       <c r="G59" t="n">
         <v>4.48</v>
       </c>
-      <c r="H59" t="s">
-        <v>604</v>
+      <c r="H59" t="n">
+        <v>12193297</v>
       </c>
       <c r="I59" t="n">
         <v>4.31</v>
       </c>
-      <c r="J59" t="s">
-        <v>605</v>
+      <c r="J59" t="n">
+        <v>12195117</v>
       </c>
       <c r="K59" t="n">
         <v>4.27</v>
       </c>
-      <c r="L59" t="s">
-        <v>606</v>
+      <c r="L59" t="n">
+        <v>12227447</v>
       </c>
       <c r="M59" t="n">
         <v>4.36</v>
       </c>
-      <c r="N59" t="s">
-        <v>607</v>
+      <c r="N59" t="n">
+        <v>12226214</v>
       </c>
       <c r="O59" t="n">
         <v>4.33</v>
       </c>
-      <c r="P59" t="s">
-        <v>608</v>
+      <c r="P59" t="n">
+        <v>12225528</v>
       </c>
       <c r="Q59" t="n">
         <v>4.18</v>
       </c>
-      <c r="R59" t="s">
-        <v>609</v>
+      <c r="R59" t="n">
+        <v>12225234</v>
       </c>
       <c r="S59" t="n">
         <v>4.22</v>
       </c>
-      <c r="T59" t="s">
-        <v>610</v>
+      <c r="T59" t="n">
+        <v>12225088</v>
       </c>
       <c r="U59" t="n">
         <v>4.08</v>
       </c>
-      <c r="V59" t="s">
-        <v>611</v>
+      <c r="V59" t="n">
+        <v>12310531</v>
       </c>
       <c r="W59" t="n">
         <v>4.15</v>
       </c>
-      <c r="X59" t="s">
-        <v>612</v>
+      <c r="X59" t="n">
+        <v>12309615</v>
       </c>
       <c r="Y59" t="n">
         <v>4.2</v>
       </c>
-      <c r="Z59" t="s">
-        <v>612</v>
+      <c r="Z59" t="n">
+        <v>12309615</v>
       </c>
       <c r="AA59" t="n">
         <v>4.41</v>
       </c>
-      <c r="AB59" t="s">
-        <v>612</v>
+      <c r="AB59" t="n">
+        <v>12309615</v>
       </c>
       <c r="AC59" t="n">
         <v>4.58</v>
       </c>
-      <c r="AD59" t="s">
-        <v>613</v>
+      <c r="AD59" t="n">
+        <v>13534162</v>
       </c>
       <c r="AE59" t="n">
         <v>5.11</v>
       </c>
-      <c r="AF59" t="s">
-        <v>613</v>
+      <c r="AF59" t="n">
+        <v>13534162</v>
       </c>
       <c r="AG59" t="n">
         <v>5.07</v>
@@ -7225,100 +5293,100 @@
     </row>
     <row r="60" spans="1:33">
       <c r="A60" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B60" t="s">
-        <v>615</v>
+        <v>90</v>
+      </c>
+      <c r="B60" t="n">
+        <v>272835233</v>
       </c>
       <c r="C60" t="n">
         <v>100</v>
       </c>
-      <c r="D60" t="s">
-        <v>616</v>
+      <c r="D60" t="n">
+        <v>273644455</v>
       </c>
       <c r="E60" t="n">
         <v>100</v>
       </c>
-      <c r="F60" t="s">
-        <v>617</v>
+      <c r="F60" t="n">
+        <v>271992941</v>
       </c>
       <c r="G60" t="n">
         <v>100</v>
       </c>
-      <c r="H60" t="s">
-        <v>618</v>
+      <c r="H60" t="n">
+        <v>282680739</v>
       </c>
       <c r="I60" t="n">
         <v>100</v>
       </c>
-      <c r="J60" t="s">
-        <v>619</v>
+      <c r="J60" t="n">
+        <v>285762318</v>
       </c>
       <c r="K60" t="n">
         <v>100</v>
       </c>
-      <c r="L60" t="s">
-        <v>620</v>
+      <c r="L60" t="n">
+        <v>280613572</v>
       </c>
       <c r="M60" t="n">
         <v>100</v>
       </c>
-      <c r="N60" t="s">
-        <v>621</v>
+      <c r="N60" t="n">
+        <v>282622925</v>
       </c>
       <c r="O60" t="n">
         <v>100</v>
       </c>
-      <c r="P60" t="s">
-        <v>622</v>
+      <c r="P60" t="n">
+        <v>292743832</v>
       </c>
       <c r="Q60" t="n">
         <v>100</v>
       </c>
-      <c r="R60" t="s">
-        <v>574</v>
+      <c r="R60" t="n">
+        <v>289782835</v>
       </c>
       <c r="S60" t="n">
         <v>100</v>
       </c>
-      <c r="T60" t="s">
-        <v>575</v>
+      <c r="T60" t="n">
+        <v>299879447</v>
       </c>
       <c r="U60" t="n">
         <v>100</v>
       </c>
-      <c r="V60" t="s">
-        <v>576</v>
+      <c r="V60" t="n">
+        <v>296748604</v>
       </c>
       <c r="W60" t="n">
         <v>100</v>
       </c>
-      <c r="X60" t="s">
-        <v>577</v>
+      <c r="X60" t="n">
+        <v>293066355</v>
       </c>
       <c r="Y60" t="n">
         <v>100</v>
       </c>
-      <c r="Z60" t="s">
-        <v>578</v>
+      <c r="Z60" t="n">
+        <v>278830039</v>
       </c>
       <c r="AA60" t="n">
         <v>100</v>
       </c>
-      <c r="AB60" t="s">
-        <v>579</v>
+      <c r="AB60" t="n">
+        <v>268777321</v>
       </c>
       <c r="AC60" t="n">
         <v>100</v>
       </c>
-      <c r="AD60" t="s">
-        <v>580</v>
+      <c r="AD60" t="n">
+        <v>265077946</v>
       </c>
       <c r="AE60" t="n">
         <v>100</v>
       </c>
-      <c r="AF60" t="s">
-        <v>581</v>
+      <c r="AF60" t="n">
+        <v>266988696</v>
       </c>
       <c r="AG60" t="n">
         <v>100</v>
@@ -7326,7 +5394,7 @@
     </row>
     <row r="61" spans="1:33">
       <c r="A61" s="1" t="s">
-        <v>623</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s"/>
       <c r="C61" t="s"/>
@@ -7342,8 +5410,8 @@
       <c r="M61" t="s"/>
       <c r="N61" t="s"/>
       <c r="O61" t="s"/>
-      <c r="P61" t="s">
-        <v>50</v>
+      <c r="P61" t="n">
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
@@ -7367,7 +5435,7 @@
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="1" t="s">
-        <v>624</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s"/>
       <c r="C62" t="s"/>
@@ -7383,8 +5451,8 @@
       <c r="M62" t="s"/>
       <c r="N62" t="s"/>
       <c r="O62" t="s"/>
-      <c r="P62" t="s">
-        <v>50</v>
+      <c r="P62" t="n">
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -7408,100 +5476,100 @@
     </row>
     <row r="63" spans="1:33">
       <c r="A63" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B63" t="s">
-        <v>626</v>
+        <v>93</v>
+      </c>
+      <c r="B63" t="n">
+        <v>271687</v>
       </c>
       <c r="C63" t="n">
         <v>0.1</v>
       </c>
-      <c r="D63" t="s">
-        <v>627</v>
+      <c r="D63" t="n">
+        <v>275130</v>
       </c>
       <c r="E63" t="n">
         <v>0.1</v>
       </c>
-      <c r="F63" t="s">
-        <v>628</v>
+      <c r="F63" t="n">
+        <v>219373</v>
       </c>
       <c r="G63" t="n">
         <v>0.08</v>
       </c>
-      <c r="H63" t="s">
-        <v>629</v>
+      <c r="H63" t="n">
+        <v>215182</v>
       </c>
       <c r="I63" t="n">
         <v>0.08</v>
       </c>
-      <c r="J63" t="s">
-        <v>630</v>
+      <c r="J63" t="n">
+        <v>176175</v>
       </c>
       <c r="K63" t="n">
         <v>0.06</v>
       </c>
-      <c r="L63" t="s">
-        <v>631</v>
+      <c r="L63" t="n">
+        <v>175677</v>
       </c>
       <c r="M63" t="n">
         <v>0.06</v>
       </c>
-      <c r="N63" t="s">
-        <v>632</v>
+      <c r="N63" t="n">
+        <v>176032</v>
       </c>
       <c r="O63" t="n">
         <v>0.06</v>
       </c>
-      <c r="P63" t="s">
-        <v>633</v>
+      <c r="P63" t="n">
+        <v>176865</v>
       </c>
       <c r="Q63" t="n">
         <v>0.06</v>
       </c>
-      <c r="R63" t="s">
-        <v>634</v>
+      <c r="R63" t="n">
+        <v>146388</v>
       </c>
       <c r="S63" t="n">
         <v>0.05</v>
       </c>
-      <c r="T63" t="s">
-        <v>635</v>
+      <c r="T63" t="n">
+        <v>145919</v>
       </c>
       <c r="U63" t="n">
         <v>0.05</v>
       </c>
-      <c r="V63" t="s">
-        <v>636</v>
+      <c r="V63" t="n">
+        <v>148581</v>
       </c>
       <c r="W63" t="n">
         <v>0.05</v>
       </c>
-      <c r="X63" t="s">
-        <v>637</v>
+      <c r="X63" t="n">
+        <v>147113</v>
       </c>
       <c r="Y63" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z63" t="s">
-        <v>638</v>
+      <c r="Z63" t="n">
+        <v>146462</v>
       </c>
       <c r="AA63" t="n">
         <v>0.05</v>
       </c>
-      <c r="AB63" t="s">
-        <v>639</v>
+      <c r="AB63" t="n">
+        <v>146656</v>
       </c>
       <c r="AC63" t="n">
         <v>0.05</v>
       </c>
-      <c r="AD63" t="s">
-        <v>640</v>
+      <c r="AD63" t="n">
+        <v>162966</v>
       </c>
       <c r="AE63" t="n">
         <v>0.06</v>
       </c>
-      <c r="AF63" t="s">
-        <v>641</v>
+      <c r="AF63" t="n">
+        <v>148488</v>
       </c>
       <c r="AG63" t="n">
         <v>0.06</v>
@@ -7509,100 +5577,100 @@
     </row>
     <row r="64" spans="1:33">
       <c r="A64" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="B64" t="s">
-        <v>643</v>
+        <v>94</v>
+      </c>
+      <c r="B64" t="n">
+        <v>9353869</v>
       </c>
       <c r="C64" t="n">
         <v>3.43</v>
       </c>
-      <c r="D64" t="s">
-        <v>644</v>
+      <c r="D64" t="n">
+        <v>9458082</v>
       </c>
       <c r="E64" t="n">
         <v>3.46</v>
       </c>
-      <c r="F64" t="s">
-        <v>645</v>
+      <c r="F64" t="n">
+        <v>9569927</v>
       </c>
       <c r="G64" t="n">
         <v>3.52</v>
       </c>
-      <c r="H64" t="s">
-        <v>646</v>
+      <c r="H64" t="n">
+        <v>9679623</v>
       </c>
       <c r="I64" t="n">
         <v>3.42</v>
       </c>
-      <c r="J64" t="s">
-        <v>647</v>
+      <c r="J64" t="n">
+        <v>9770177</v>
       </c>
       <c r="K64" t="n">
         <v>3.42</v>
       </c>
-      <c r="L64" t="s">
-        <v>648</v>
+      <c r="L64" t="n">
+        <v>9802019</v>
       </c>
       <c r="M64" t="n">
         <v>3.49</v>
       </c>
-      <c r="N64" t="s">
-        <v>649</v>
+      <c r="N64" t="n">
+        <v>9889494</v>
       </c>
       <c r="O64" t="n">
         <v>3.5</v>
       </c>
-      <c r="P64" t="s">
-        <v>650</v>
+      <c r="P64" t="n">
+        <v>10078645</v>
       </c>
       <c r="Q64" t="n">
         <v>3.44</v>
       </c>
-      <c r="R64" t="s">
-        <v>651</v>
+      <c r="R64" t="n">
+        <v>10173593</v>
       </c>
       <c r="S64" t="n">
         <v>3.51</v>
       </c>
-      <c r="T64" t="s">
-        <v>652</v>
+      <c r="T64" t="n">
+        <v>10670566</v>
       </c>
       <c r="U64" t="n">
         <v>3.56</v>
       </c>
-      <c r="V64" t="s">
-        <v>653</v>
+      <c r="V64" t="n">
+        <v>10471711</v>
       </c>
       <c r="W64" t="n">
         <v>3.53</v>
       </c>
-      <c r="X64" t="s">
-        <v>654</v>
+      <c r="X64" t="n">
+        <v>10268560</v>
       </c>
       <c r="Y64" t="n">
         <v>3.5</v>
       </c>
-      <c r="Z64" t="s">
-        <v>655</v>
+      <c r="Z64" t="n">
+        <v>10298826</v>
       </c>
       <c r="AA64" t="n">
         <v>3.69</v>
       </c>
-      <c r="AB64" t="s">
-        <v>656</v>
+      <c r="AB64" t="n">
+        <v>10297263</v>
       </c>
       <c r="AC64" t="n">
         <v>3.83</v>
       </c>
-      <c r="AD64" t="s">
-        <v>657</v>
+      <c r="AD64" t="n">
+        <v>10271611</v>
       </c>
       <c r="AE64" t="n">
         <v>3.87</v>
       </c>
-      <c r="AF64" t="s">
-        <v>658</v>
+      <c r="AF64" t="n">
+        <v>10213967</v>
       </c>
       <c r="AG64" t="n">
         <v>3.83</v>
@@ -7610,7 +5678,7 @@
     </row>
     <row r="65" spans="1:33">
       <c r="A65" s="1" t="s">
-        <v>659</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s"/>
       <c r="C65" t="s"/>
@@ -7626,8 +5694,8 @@
       <c r="M65" t="s"/>
       <c r="N65" t="s"/>
       <c r="O65" t="s"/>
-      <c r="P65" t="s">
-        <v>50</v>
+      <c r="P65" t="n">
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -7651,7 +5719,7 @@
     </row>
     <row r="66" spans="1:33">
       <c r="A66" s="1" t="s">
-        <v>660</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s"/>
       <c r="C66" t="s"/>
@@ -7667,8 +5735,8 @@
       <c r="M66" t="s"/>
       <c r="N66" t="s"/>
       <c r="O66" t="s"/>
-      <c r="P66" t="s">
-        <v>50</v>
+      <c r="P66" t="n">
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -7692,100 +5760,100 @@
     </row>
     <row r="67" spans="1:33">
       <c r="A67" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B67" t="s">
-        <v>662</v>
+        <v>97</v>
+      </c>
+      <c r="B67" t="n">
+        <v>47803800</v>
       </c>
       <c r="C67" t="n">
         <v>17.52</v>
       </c>
-      <c r="D67" t="s">
-        <v>663</v>
+      <c r="D67" t="n">
+        <v>50736261</v>
       </c>
       <c r="E67" t="n">
         <v>18.54</v>
       </c>
-      <c r="F67" t="s">
-        <v>664</v>
+      <c r="F67" t="n">
+        <v>38396562</v>
       </c>
       <c r="G67" t="n">
         <v>14.12</v>
       </c>
-      <c r="H67" t="s">
-        <v>665</v>
+      <c r="H67" t="n">
+        <v>47342350</v>
       </c>
       <c r="I67" t="n">
         <v>16.75</v>
       </c>
-      <c r="J67" t="s">
-        <v>666</v>
+      <c r="J67" t="n">
+        <v>41724407</v>
       </c>
       <c r="K67" t="n">
         <v>14.6</v>
       </c>
-      <c r="L67" t="s">
-        <v>667</v>
+      <c r="L67" t="n">
+        <v>41520619</v>
       </c>
       <c r="M67" t="n">
         <v>14.8</v>
       </c>
-      <c r="N67" t="s">
-        <v>668</v>
+      <c r="N67" t="n">
+        <v>38750230</v>
       </c>
       <c r="O67" t="n">
         <v>13.71</v>
       </c>
-      <c r="P67" t="s">
-        <v>669</v>
+      <c r="P67" t="n">
+        <v>50457481</v>
       </c>
       <c r="Q67" t="n">
         <v>17.24</v>
       </c>
-      <c r="R67" t="s">
-        <v>670</v>
+      <c r="R67" t="n">
+        <v>46330613</v>
       </c>
       <c r="S67" t="n">
         <v>15.99</v>
       </c>
-      <c r="T67" t="s">
-        <v>671</v>
+      <c r="T67" t="n">
+        <v>57936547</v>
       </c>
       <c r="U67" t="n">
         <v>19.32</v>
       </c>
-      <c r="V67" t="s">
-        <v>672</v>
+      <c r="V67" t="n">
+        <v>56537977</v>
       </c>
       <c r="W67" t="n">
         <v>19.05</v>
       </c>
-      <c r="X67" t="s">
-        <v>673</v>
+      <c r="X67" t="n">
+        <v>57986194</v>
       </c>
       <c r="Y67" t="n">
         <v>19.79</v>
       </c>
-      <c r="Z67" t="s">
-        <v>674</v>
+      <c r="Z67" t="n">
+        <v>47773790</v>
       </c>
       <c r="AA67" t="n">
         <v>17.13</v>
       </c>
-      <c r="AB67" t="s">
-        <v>675</v>
+      <c r="AB67" t="n">
+        <v>51772729</v>
       </c>
       <c r="AC67" t="n">
         <v>19.26</v>
       </c>
-      <c r="AD67" t="s">
-        <v>676</v>
+      <c r="AD67" t="n">
+        <v>46359096</v>
       </c>
       <c r="AE67" t="n">
         <v>17.49</v>
       </c>
-      <c r="AF67" t="s">
-        <v>677</v>
+      <c r="AF67" t="n">
+        <v>53342059</v>
       </c>
       <c r="AG67" t="n">
         <v>19.98</v>
@@ -7793,100 +5861,100 @@
     </row>
     <row r="68" spans="1:33">
       <c r="A68" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B68" t="s">
-        <v>679</v>
+        <v>98</v>
+      </c>
+      <c r="B68" t="n">
+        <v>37492778</v>
       </c>
       <c r="C68" t="n">
         <v>13.74</v>
       </c>
-      <c r="D68" t="s">
-        <v>680</v>
+      <c r="D68" t="n">
+        <v>37439944</v>
       </c>
       <c r="E68" t="n">
         <v>13.68</v>
       </c>
-      <c r="F68" t="s">
-        <v>681</v>
+      <c r="F68" t="n">
+        <v>38567101</v>
       </c>
       <c r="G68" t="n">
         <v>14.18</v>
       </c>
-      <c r="H68" t="s">
-        <v>682</v>
+      <c r="H68" t="n">
+        <v>40540632</v>
       </c>
       <c r="I68" t="n">
         <v>14.34</v>
       </c>
-      <c r="J68" t="s">
-        <v>683</v>
+      <c r="J68" t="n">
+        <v>41160160</v>
       </c>
       <c r="K68" t="n">
         <v>14.4</v>
       </c>
-      <c r="L68" t="s">
-        <v>684</v>
+      <c r="L68" t="n">
+        <v>39615994</v>
       </c>
       <c r="M68" t="n">
         <v>14.12</v>
       </c>
-      <c r="N68" t="s">
-        <v>685</v>
+      <c r="N68" t="n">
+        <v>41910845</v>
       </c>
       <c r="O68" t="n">
         <v>14.83</v>
       </c>
-      <c r="P68" t="s">
-        <v>686</v>
+      <c r="P68" t="n">
+        <v>44058811</v>
       </c>
       <c r="Q68" t="n">
         <v>15.05</v>
       </c>
-      <c r="R68" t="s">
-        <v>687</v>
+      <c r="R68" t="n">
+        <v>43911760</v>
       </c>
       <c r="S68" t="n">
         <v>15.15</v>
       </c>
-      <c r="T68" t="s">
-        <v>688</v>
+      <c r="T68" t="n">
+        <v>41339780</v>
       </c>
       <c r="U68" t="n">
         <v>13.79</v>
       </c>
-      <c r="V68" t="s">
-        <v>689</v>
+      <c r="V68" t="n">
+        <v>48183147</v>
       </c>
       <c r="W68" t="n">
         <v>16.24</v>
       </c>
-      <c r="X68" t="s">
-        <v>690</v>
+      <c r="X68" t="n">
+        <v>47441267</v>
       </c>
       <c r="Y68" t="n">
         <v>16.19</v>
       </c>
-      <c r="Z68" t="s">
-        <v>691</v>
+      <c r="Z68" t="n">
+        <v>47040808</v>
       </c>
       <c r="AA68" t="n">
         <v>16.87</v>
       </c>
-      <c r="AB68" t="s">
-        <v>692</v>
+      <c r="AB68" t="n">
+        <v>44438339</v>
       </c>
       <c r="AC68" t="n">
         <v>16.53</v>
       </c>
-      <c r="AD68" t="s">
-        <v>693</v>
+      <c r="AD68" t="n">
+        <v>40281876</v>
       </c>
       <c r="AE68" t="n">
         <v>15.2</v>
       </c>
-      <c r="AF68" t="s">
-        <v>694</v>
+      <c r="AF68" t="n">
+        <v>40628620</v>
       </c>
       <c r="AG68" t="n">
         <v>15.22</v>
@@ -7894,100 +5962,100 @@
     </row>
     <row r="69" spans="1:33">
       <c r="A69" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="B69" t="s">
-        <v>696</v>
+        <v>99</v>
+      </c>
+      <c r="B69" t="n">
+        <v>61556516</v>
       </c>
       <c r="C69" t="n">
         <v>22.56</v>
       </c>
-      <c r="D69" t="s">
-        <v>697</v>
+      <c r="D69" t="n">
+        <v>65466041</v>
       </c>
       <c r="E69" t="n">
         <v>23.92</v>
       </c>
-      <c r="F69" t="s">
-        <v>698</v>
+      <c r="F69" t="n">
+        <v>53063194</v>
       </c>
       <c r="G69" t="n">
         <v>19.51</v>
       </c>
-      <c r="H69" t="s">
-        <v>699</v>
+      <c r="H69" t="n">
+        <v>58663668</v>
       </c>
       <c r="I69" t="n">
         <v>20.75</v>
       </c>
-      <c r="J69" t="s">
-        <v>700</v>
+      <c r="J69" t="n">
+        <v>53118431</v>
       </c>
       <c r="K69" t="n">
         <v>18.59</v>
       </c>
-      <c r="L69" t="s">
-        <v>701</v>
+      <c r="L69" t="n">
+        <v>51926594</v>
       </c>
       <c r="M69" t="n">
         <v>18.5</v>
       </c>
-      <c r="N69" t="s">
-        <v>702</v>
+      <c r="N69" t="n">
+        <v>50291316</v>
       </c>
       <c r="O69" t="n">
         <v>17.79</v>
       </c>
-      <c r="P69" t="s">
-        <v>703</v>
+      <c r="P69" t="n">
+        <v>62094107</v>
       </c>
       <c r="Q69" t="n">
         <v>21.21</v>
       </c>
-      <c r="R69" t="s">
-        <v>704</v>
+      <c r="R69" t="n">
+        <v>57983520</v>
       </c>
       <c r="S69" t="n">
         <v>20.01</v>
       </c>
-      <c r="T69" t="s">
-        <v>705</v>
+      <c r="T69" t="n">
+        <v>69995144</v>
       </c>
       <c r="U69" t="n">
         <v>23.34</v>
       </c>
-      <c r="V69" t="s">
-        <v>706</v>
+      <c r="V69" t="n">
+        <v>68313122</v>
       </c>
       <c r="W69" t="n">
         <v>23.02</v>
       </c>
-      <c r="X69" t="s">
-        <v>707</v>
+      <c r="X69" t="n">
+        <v>69498271</v>
       </c>
       <c r="Y69" t="n">
         <v>23.71</v>
       </c>
-      <c r="Z69" t="s">
-        <v>708</v>
+      <c r="Z69" t="n">
+        <v>59260936</v>
       </c>
       <c r="AA69" t="n">
         <v>21.25</v>
       </c>
-      <c r="AB69" t="s">
-        <v>709</v>
+      <c r="AB69" t="n">
+        <v>63147112</v>
       </c>
       <c r="AC69" t="n">
         <v>23.49</v>
       </c>
-      <c r="AD69" t="s">
-        <v>710</v>
+      <c r="AD69" t="n">
+        <v>57636521</v>
       </c>
       <c r="AE69" t="n">
         <v>21.74</v>
       </c>
-      <c r="AF69" t="s">
-        <v>711</v>
+      <c r="AF69" t="n">
+        <v>64487106</v>
       </c>
       <c r="AG69" t="n">
         <v>24.15</v>
@@ -7995,100 +6063,100 @@
     </row>
     <row r="70" spans="1:33">
       <c r="A70" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B70" t="s">
-        <v>713</v>
+        <v>100</v>
+      </c>
+      <c r="B70" t="n">
+        <v>195588878</v>
       </c>
       <c r="C70" t="n">
         <v>71.69</v>
       </c>
-      <c r="D70" t="s">
-        <v>714</v>
+      <c r="D70" t="n">
+        <v>196505065</v>
       </c>
       <c r="E70" t="n">
         <v>71.81</v>
       </c>
-      <c r="F70" t="s">
-        <v>715</v>
+      <c r="F70" t="n">
+        <v>194780898</v>
       </c>
       <c r="G70" t="n">
         <v>71.61</v>
       </c>
-      <c r="H70" t="s">
-        <v>716</v>
+      <c r="H70" t="n">
+        <v>194892684</v>
       </c>
       <c r="I70" t="n">
         <v>68.94</v>
       </c>
-      <c r="J70" t="s">
-        <v>717</v>
+      <c r="J70" t="n">
+        <v>193640860</v>
       </c>
       <c r="K70" t="n">
         <v>67.76000000000001</v>
       </c>
-      <c r="L70" t="s">
-        <v>718</v>
+      <c r="L70" t="n">
+        <v>191450443</v>
       </c>
       <c r="M70" t="n">
         <v>68.23</v>
       </c>
-      <c r="N70" t="s">
-        <v>719</v>
+      <c r="N70" t="n">
+        <v>193149997</v>
       </c>
       <c r="O70" t="n">
         <v>68.34</v>
       </c>
-      <c r="P70" t="s">
-        <v>720</v>
+      <c r="P70" t="n">
+        <v>196138016</v>
       </c>
       <c r="Q70" t="n">
         <v>67</v>
       </c>
-      <c r="R70" t="s">
-        <v>721</v>
+      <c r="R70" t="n">
+        <v>197311739</v>
       </c>
       <c r="S70" t="n">
         <v>68.09</v>
       </c>
-      <c r="T70" t="s">
-        <v>722</v>
+      <c r="T70" t="n">
+        <v>204276458</v>
       </c>
       <c r="U70" t="n">
         <v>68.12</v>
       </c>
-      <c r="V70" t="s">
-        <v>723</v>
+      <c r="V70" t="n">
+        <v>205934003</v>
       </c>
       <c r="W70" t="n">
         <v>69.40000000000001</v>
       </c>
-      <c r="X70" t="s">
-        <v>724</v>
+      <c r="X70" t="n">
+        <v>202472979</v>
       </c>
       <c r="Y70" t="n">
         <v>69.09</v>
       </c>
-      <c r="Z70" t="s">
-        <v>725</v>
+      <c r="Z70" t="n">
+        <v>200347937</v>
       </c>
       <c r="AA70" t="n">
         <v>71.84999999999999</v>
       </c>
-      <c r="AB70" t="s">
-        <v>726</v>
+      <c r="AB70" t="n">
+        <v>195962510</v>
       </c>
       <c r="AC70" t="n">
         <v>72.91</v>
       </c>
-      <c r="AD70" t="s">
-        <v>727</v>
+      <c r="AD70" t="n">
+        <v>190899771</v>
       </c>
       <c r="AE70" t="n">
         <v>72.02</v>
       </c>
-      <c r="AF70" t="s">
-        <v>728</v>
+      <c r="AF70" t="n">
+        <v>189104684</v>
       </c>
       <c r="AG70" t="n">
         <v>70.83</v>
@@ -8096,100 +6164,100 @@
     </row>
     <row r="71" spans="1:33">
       <c r="A71" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B71" t="s">
-        <v>730</v>
+        <v>101</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4568191</v>
       </c>
       <c r="C71" t="n">
         <v>1.67</v>
       </c>
-      <c r="D71" t="s">
-        <v>731</v>
+      <c r="D71" t="n">
+        <v>5042304</v>
       </c>
       <c r="E71" t="n">
         <v>1.84</v>
       </c>
-      <c r="F71" t="s">
-        <v>732</v>
+      <c r="F71" t="n">
+        <v>3938338</v>
       </c>
       <c r="G71" t="n">
         <v>1.45</v>
       </c>
-      <c r="H71" t="s">
-        <v>733</v>
+      <c r="H71" t="n">
+        <v>4480308</v>
       </c>
       <c r="I71" t="n">
         <v>1.58</v>
       </c>
-      <c r="J71" t="s">
-        <v>734</v>
+      <c r="J71" t="n">
+        <v>4796565</v>
       </c>
       <c r="K71" t="n">
         <v>1.68</v>
       </c>
-      <c r="L71" t="s">
-        <v>735</v>
+      <c r="L71" t="n">
+        <v>4106227</v>
       </c>
       <c r="M71" t="n">
         <v>1.46</v>
       </c>
-      <c r="N71" t="s">
-        <v>736</v>
+      <c r="N71" t="n">
+        <v>4375279</v>
       </c>
       <c r="O71" t="n">
         <v>1.55</v>
       </c>
-      <c r="P71" t="s">
-        <v>737</v>
+      <c r="P71" t="n">
+        <v>3833064</v>
       </c>
       <c r="Q71" t="n">
         <v>1.31</v>
       </c>
-      <c r="R71" t="s">
-        <v>738</v>
+      <c r="R71" t="n">
+        <v>4254712</v>
       </c>
       <c r="S71" t="n">
         <v>1.47</v>
       </c>
-      <c r="T71" t="s">
-        <v>739</v>
+      <c r="T71" t="n">
+        <v>3533996</v>
       </c>
       <c r="U71" t="n">
         <v>1.18</v>
       </c>
-      <c r="V71" t="s">
-        <v>740</v>
+      <c r="V71" t="n">
+        <v>3915021</v>
       </c>
       <c r="W71" t="n">
         <v>1.32</v>
       </c>
-      <c r="X71" t="s">
-        <v>741</v>
+      <c r="X71" t="n">
+        <v>3286150</v>
       </c>
       <c r="Y71" t="n">
         <v>1.12</v>
       </c>
-      <c r="Z71" t="s">
-        <v>742</v>
+      <c r="Z71" t="n">
+        <v>3614374</v>
       </c>
       <c r="AA71" t="n">
         <v>1.3</v>
       </c>
-      <c r="AB71" t="s">
-        <v>743</v>
+      <c r="AB71" t="n">
+        <v>2950736</v>
       </c>
       <c r="AC71" t="n">
         <v>1.1</v>
       </c>
-      <c r="AD71" t="s">
-        <v>744</v>
+      <c r="AD71" t="n">
+        <v>3570376</v>
       </c>
       <c r="AE71" t="n">
         <v>1.35</v>
       </c>
-      <c r="AF71" t="s">
-        <v>745</v>
+      <c r="AF71" t="n">
+        <v>2955246</v>
       </c>
       <c r="AG71" t="n">
         <v>1.11</v>
@@ -8197,70 +6265,70 @@
     </row>
     <row r="72" spans="1:33">
       <c r="A72" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B72" t="s">
-        <v>50</v>
+        <v>102</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
       </c>
       <c r="C72" t="s"/>
-      <c r="D72" t="s">
-        <v>50</v>
+      <c r="D72" t="n">
+        <v>0</v>
       </c>
       <c r="E72" t="s"/>
-      <c r="F72" t="s">
-        <v>50</v>
+      <c r="F72" t="n">
+        <v>0</v>
       </c>
       <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>50</v>
+      <c r="H72" t="n">
+        <v>0</v>
       </c>
       <c r="I72" t="s"/>
-      <c r="J72" t="s">
-        <v>50</v>
+      <c r="J72" t="n">
+        <v>0</v>
       </c>
       <c r="K72" t="s"/>
-      <c r="L72" t="s">
-        <v>50</v>
+      <c r="L72" t="n">
+        <v>0</v>
       </c>
       <c r="M72" t="s"/>
-      <c r="N72" t="s">
-        <v>50</v>
+      <c r="N72" t="n">
+        <v>0</v>
       </c>
       <c r="O72" t="s"/>
-      <c r="P72" t="s">
-        <v>50</v>
+      <c r="P72" t="n">
+        <v>0</v>
       </c>
       <c r="Q72" t="s"/>
-      <c r="R72" t="s">
-        <v>50</v>
+      <c r="R72" t="n">
+        <v>0</v>
       </c>
       <c r="S72" t="s"/>
-      <c r="T72" t="s">
-        <v>50</v>
+      <c r="T72" t="n">
+        <v>0</v>
       </c>
       <c r="U72" t="s"/>
-      <c r="V72" t="s">
-        <v>50</v>
+      <c r="V72" t="n">
+        <v>0</v>
       </c>
       <c r="W72" t="s"/>
-      <c r="X72" t="s">
-        <v>50</v>
+      <c r="X72" t="n">
+        <v>0</v>
       </c>
       <c r="Y72" t="s"/>
-      <c r="Z72" t="s">
-        <v>50</v>
+      <c r="Z72" t="n">
+        <v>0</v>
       </c>
       <c r="AA72" t="s"/>
-      <c r="AB72" t="s">
-        <v>50</v>
+      <c r="AB72" t="n">
+        <v>0</v>
       </c>
       <c r="AC72" t="s"/>
-      <c r="AD72" t="s">
-        <v>50</v>
+      <c r="AD72" t="n">
+        <v>0</v>
       </c>
       <c r="AE72" t="s"/>
-      <c r="AF72" t="s">
-        <v>50</v>
+      <c r="AF72" t="n">
+        <v>0</v>
       </c>
       <c r="AG72" t="s"/>
     </row>
